--- a/excel/dal 101.xlsx
+++ b/excel/dal 101.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\github\dal\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8223229F-D19D-4AE6-B75C-3E315C24F3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF9BC6B-E330-4C8A-AFCF-BCD6BB112228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{A658F64F-54DB-47F5-8888-F8582537DD58}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A658F64F-54DB-47F5-8888-F8582537DD58}"/>
   </bookViews>
   <sheets>
     <sheet name="linear Interp" sheetId="1" r:id="rId1"/>
@@ -3285,8 +3285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF77A3B-B9AD-43D2-BE36-099E3609F374}">
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3320,7 +3320,7 @@
       </c>
       <c r="E2" t="str" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">_xll.INTERP1.NEW.LINEAR(E1,A2:A6,B2:B6)</f>
-        <v>~Interp1~my.interp.linear~269A2588</v>
+        <v>~Interp1~my.interp.linear~27E74898</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -4198,8 +4198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA99EECB-1A67-40D9-B681-417D5292FB23}">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4242,7 +4242,7 @@
       </c>
       <c r="E2" t="str" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">_xll.INTERP1.NEW.CUBIC(E1,A2:A6,B2:B6,H2:H3,I2:I3)</f>
-        <v>~Interp1~my.interp.cubic~320A8CD0</v>
+        <v>~Interp1~my.interp.cubic~2F471DD8</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -4321,7 +4321,7 @@
       </c>
       <c r="B10" s="2">
         <f t="array" aca="1" ref="B10" ca="1">B2</f>
-        <v>0.12505984264322911</v>
+        <v>0.54860451258886855</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">

--- a/excel/dal 101.xlsx
+++ b/excel/dal 101.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\github\dal\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF9BC6B-E330-4C8A-AFCF-BCD6BB112228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DA378C-995A-4617-9989-16803024ED61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A658F64F-54DB-47F5-8888-F8582537DD58}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{A658F64F-54DB-47F5-8888-F8582537DD58}"/>
   </bookViews>
   <sheets>
     <sheet name="linear Interp" sheetId="1" r:id="rId1"/>
-    <sheet name="Cubic Interp" sheetId="2" r:id="rId2"/>
+    <sheet name="cubic Interp" sheetId="2" r:id="rId2"/>
+    <sheet name="linear interp 2D" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +110,26 @@
   </si>
   <si>
     <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x/y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my.interp2d.linear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,244 +559,244 @@
                   <c:v>0.54860451258886855</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56575566346242168</c:v>
+                  <c:v>0.55617428695942517</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5829068143359748</c:v>
+                  <c:v>0.56374406132998167</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.60005796520952781</c:v>
+                  <c:v>0.57131383570053829</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.61720911608308093</c:v>
+                  <c:v>0.57888361007109479</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.63436026695663406</c:v>
+                  <c:v>0.5864533844416514</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.65151141783018718</c:v>
+                  <c:v>0.59402315881220802</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.66866256870374019</c:v>
+                  <c:v>0.60159293318276452</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.68581371957729331</c:v>
+                  <c:v>0.60916270755332114</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.70296487045084644</c:v>
+                  <c:v>0.61673248192387764</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.72011602132439956</c:v>
+                  <c:v>0.62430225629443425</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.73726717219795268</c:v>
+                  <c:v>0.63187203066499087</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.7544183230715058</c:v>
+                  <c:v>0.63944180503554737</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.77156947394505881</c:v>
+                  <c:v>0.64701157940610399</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.78872062481861194</c:v>
+                  <c:v>0.65458135377666049</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.80587177569216506</c:v>
+                  <c:v>0.66215112814721711</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.82302292656571818</c:v>
+                  <c:v>0.66972090251777372</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.84017407743927131</c:v>
+                  <c:v>0.67729067688833022</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.85732522831282432</c:v>
+                  <c:v>0.68486045125888684</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.87447637918637744</c:v>
+                  <c:v>0.69243022562944334</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.89162753005993056</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.89613867388476065</c:v>
+                  <c:v>0.6865</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.90064981770959085</c:v>
+                  <c:v>0.67299999999999993</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.90516096153442094</c:v>
+                  <c:v>0.65949999999999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.90967210535925103</c:v>
+                  <c:v>0.64600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.91418324918408123</c:v>
+                  <c:v>0.63249999999999995</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.91869439300891131</c:v>
+                  <c:v>0.61899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.92320553683374151</c:v>
+                  <c:v>0.60549999999999993</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.9277166806585716</c:v>
+                  <c:v>0.59199999999999997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.93222782448340169</c:v>
+                  <c:v>0.57850000000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.93673896830823189</c:v>
+                  <c:v>0.56499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.94125011213306198</c:v>
+                  <c:v>0.55149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.94576125595789207</c:v>
+                  <c:v>0.53799999999999992</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.95027239978272227</c:v>
+                  <c:v>0.52449999999999997</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.95478354360755235</c:v>
+                  <c:v>0.5109999999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.95929468743238244</c:v>
+                  <c:v>0.4975</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.96380583125721264</c:v>
+                  <c:v>0.48400000000000004</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.96831697508204273</c:v>
+                  <c:v>0.47049999999999997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.97282811890687282</c:v>
+                  <c:v>0.45700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.97733926273170302</c:v>
+                  <c:v>0.44349999999999995</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.98185040655653311</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.94120779890315476</c:v>
+                  <c:v>0.42499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.90056519124977608</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.85992258359639773</c:v>
+                  <c:v>0.41499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.81927997594301905</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.7786373682896407</c:v>
+                  <c:v>0.40500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.73799476063626246</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.69735215298288367</c:v>
+                  <c:v>0.39500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.65670954532950532</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.61606693767612675</c:v>
+                  <c:v>0.38500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.5754243300227484</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.53478172236937005</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.49413911471599131</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.45349650706261302</c:v>
+                  <c:v>0.36499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.41285389940923434</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.37221129175585199</c:v>
+                  <c:v>0.35499999999999954</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.33156868410247764</c:v>
+                  <c:v>0.35000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.29092607644909896</c:v>
+                  <c:v>0.34499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.25028346879571661</c:v>
+                  <c:v>0.33999999999999952</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.20964086114233793</c:v>
+                  <c:v>0.33499999999999952</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.16899825348896311</c:v>
+                  <c:v>0.33000000000000279</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.16424875834332089</c:v>
+                  <c:v>0.35849999999999993</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.15949926319767768</c:v>
+                  <c:v>0.38700000000000284</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.154749768052035</c:v>
+                  <c:v>0.41550000000000276</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.15000027290639228</c:v>
+                  <c:v>0.44400000000000295</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.14525077776074957</c:v>
+                  <c:v>0.47250000000000281</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.14050128261510686</c:v>
+                  <c:v>0.501000000000003</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.13575178746946415</c:v>
+                  <c:v>0.52950000000000286</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.13100229232382146</c:v>
+                  <c:v>0.55800000000000272</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.12625279717817872</c:v>
+                  <c:v>0.58650000000000291</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.12150330203253601</c:v>
+                  <c:v>0.6150000000000031</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.11675380688689331</c:v>
+                  <c:v>0.64350000000000296</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.11200431174125063</c:v>
+                  <c:v>0.67200000000000282</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.10725481659560793</c:v>
+                  <c:v>0.70050000000000279</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.10250532144996524</c:v>
+                  <c:v>0.72900000000000276</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>9.7755826304322474E-2</c:v>
+                  <c:v>0.75750000000000317</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>9.3006331158679775E-2</c:v>
+                  <c:v>0.78600000000000292</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>8.825683601303709E-2</c:v>
+                  <c:v>0.81450000000000289</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>8.3507340867394392E-2</c:v>
+                  <c:v>0.84300000000000286</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>7.8757845721751707E-2</c:v>
+                  <c:v>0.87150000000000261</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>7.4008350576109438E-2</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1054,7 +1075,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cubic Interp'!$B$9</c:f>
+              <c:f>'cubic Interp'!$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1077,7 +1098,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Cubic Interp'!$A$10:$A$90</c:f>
+              <c:f>'cubic Interp'!$A$10:$A$90</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="81"/>
@@ -1329,252 +1350,252 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cubic Interp'!$B$10:$B$90</c:f>
+              <c:f>'cubic Interp'!$B$10:$B$90</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="81"/>
                 <c:pt idx="0">
-                  <c:v>0.12505984264322911</c:v>
+                  <c:v>0.54860451258886855</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10969931594076071</c:v>
+                  <c:v>0.56181277354905823</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.4525555335239916E-2</c:v>
+                  <c:v>0.57493624523722331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.9725326923614254E-2</c:v>
+                  <c:v>0.5878901383813393</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.5485396802831275E-2</c:v>
+                  <c:v>0.60058966370938149</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.199253106983856E-2</c:v>
+                  <c:v>0.61295003194932562</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.9433495821583675E-2</c:v>
+                  <c:v>0.62488645382914698</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7995057155014227E-2</c:v>
+                  <c:v>0.63631414007682086</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7863981167077755E-2</c:v>
+                  <c:v>0.64714830142032287</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.2270339547217833E-3</c:v>
+                  <c:v>0.65730414858762853</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.2709816148939327E-3</c:v>
+                  <c:v>0.66669689230671303</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.8174097554582306E-3</c:v>
+                  <c:v>0.67524174330555209</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-5.8513740593871544E-3</c:v>
+                  <c:v>0.68285391231212089</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-6.6441451999452589E-3</c:v>
+                  <c:v>0.68944861005439506</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-5.008957080184992E-3</c:v>
+                  <c:v>0.69494104726034989</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-7.5904360315877384E-4</c:v>
+                  <c:v>0.69924643465796099</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.2923613280809754E-3</c:v>
+                  <c:v>0.70227998297520378</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6332023810481787E-2</c:v>
+                  <c:v>0.70395690294005364</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.9546709940991199E-2</c:v>
+                  <c:v>0.70419240528048599</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.6123185816556875E-2</c:v>
+                  <c:v>0.70290170072447622</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.6248217534126352E-2</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.0016737706054395E-2</c:v>
+                  <c:v>0.69543462867113059</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.11715634500632469</c:v>
+                  <c:v>0.68928137164633463</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.14730280462432804</c:v>
+                  <c:v>0.68164812867017643</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.18009188174945556</c:v>
+                  <c:v>0.67264279948722028</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.21515934157109801</c:v>
+                  <c:v>0.66237328384203076</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.25214094927864639</c:v>
+                  <c:v>0.65094748147917236</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.29067247006149144</c:v>
+                  <c:v>0.63847329214320936</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.33038966910902406</c:v>
+                  <c:v>0.62505861557870634</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.37092831161063539</c:v>
+                  <c:v>0.6108113515302277</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.41192416275571619</c:v>
+                  <c:v>0.59583939974233768</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.45301298773365717</c:v>
+                  <c:v>0.58025065995960123</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.49383055173384977</c:v>
+                  <c:v>0.56415303192658217</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.53401261994568427</c:v>
+                  <c:v>0.54765441538784532</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.5731949575585521</c:v>
+                  <c:v>0.53086271008795505</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.61101332976184353</c:v>
+                  <c:v>0.51388581577147585</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.64710350174495002</c:v>
+                  <c:v>0.4968316321829721</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.68110123869726236</c:v>
+                  <c:v>0.47980805906700807</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.71264230580817123</c:v>
+                  <c:v>0.46292299616814853</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.74136246826706786</c:v>
+                  <c:v>0.44628434323095761</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.76689749126334283</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.78897126729200417</c:v>
+                  <c:v>0.41417600574730018</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.80766019807052902</c:v>
+                  <c:v>0.39891095785472297</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.82312881262201021</c:v>
+                  <c:v>0.38430159323159391</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.83554163996954189</c:v>
+                  <c:v>0.37044464878723771</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.84506320913621746</c:v>
+                  <c:v>0.35743686143097991</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.85185804914513097</c:v>
+                  <c:v>0.34537496807214546</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.85609068901937568</c:v>
+                  <c:v>0.33435570562005945</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.85792565778204555</c:v>
+                  <c:v>0.32447581098404721</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.85752748445623395</c:v>
+                  <c:v>0.31583202107343372</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.85506069806503482</c:v>
+                  <c:v>0.30852107279754426</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.85068982763154177</c:v>
+                  <c:v>0.30263970306570387</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.84457940217884819</c:v>
+                  <c:v>0.29828464878723776</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.83689395073004802</c:v>
+                  <c:v>0.29555264687147104</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.82779800230823486</c:v>
+                  <c:v>0.29454043422772891</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.81745608593650143</c:v>
+                  <c:v>0.29534474776533665</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.80603273063794434</c:v>
+                  <c:v>0.29806232439361885</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.79369246543565408</c:v>
+                  <c:v>0.30278990102190129</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.78059981935272449</c:v>
+                  <c:v>0.30962421455950961</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.76691932141225105</c:v>
+                  <c:v>0.31866200191576771</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.75281550063732694</c:v>
+                  <c:v>0.33000000000000124</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.73842762116229244</c:v>
+                  <c:v>0.34369884833966879</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.72379388756646557</c:v>
+                  <c:v>0.359674796934775</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.70892723954041881</c:v>
+                  <c:v>0.37780799840345008</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.69384061677471798</c:v>
+                  <c:v>0.3979786053638309</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.67854695895993133</c:v>
+                  <c:v>0.42006677043405188</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.66305920578662669</c:v>
+                  <c:v>0.44395264623224856</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.64739029694537198</c:v>
+                  <c:v>0.46951638537655538</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.63155317212673501</c:v>
+                  <c:v>0.49663814048510757</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.61556077102128337</c:v>
+                  <c:v>0.52519806417604042</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.59942603331958533</c:v>
+                  <c:v>0.55507630906748862</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.58316189871220869</c:v>
+                  <c:v>0.58615302777758671</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.56678130688972128</c:v>
+                  <c:v>0.61830837292447005</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.55029719754269091</c:v>
+                  <c:v>0.65142249712627354</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.53372251036168539</c:v>
+                  <c:v>0.68537555300113251</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.51707018503727242</c:v>
+                  <c:v>0.72004769316718198</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.5003531612600205</c:v>
+                  <c:v>0.75531907024255607</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.48358437872049698</c:v>
+                  <c:v>0.79106983684539023</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.46677677710927001</c:v>
+                  <c:v>0.82718014559381969</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.44994329611690714</c:v>
+                  <c:v>0.86353014910597903</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.43309687543397801</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3285,8 +3306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF77A3B-B9AD-43D2-BE36-099E3609F374}">
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3320,7 +3341,7 @@
       </c>
       <c r="E2" t="str" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">_xll.INTERP1.NEW.LINEAR(E1,A2:A6,B2:B6)</f>
-        <v>~Interp1~my.interp.linear~27E74898</v>
+        <v>~Interp1~my.interp.linear~1FF10FB8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3328,7 +3349,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>0.89162753005993056</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3336,7 +3357,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>0.98185040655653311</v>
+        <v>0.43</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -3350,14 +3371,14 @@
         <v>7</v>
       </c>
       <c r="B5" s="4">
-        <v>0.16899825348896358</v>
+        <v>0.33</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="2" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">_xll.INTERP1.GET(E2,E4)</f>
-        <v>0.37221129175585599</v>
+        <v>0.35499999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3365,7 +3386,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>7.4008350576109438E-2</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3392,7 +3413,7 @@
       </c>
       <c r="B10" s="2">
         <f ca="1"/>
-        <v>0.56575566346242168</v>
+        <v>0.55617428695942517</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -3402,7 +3423,7 @@
       </c>
       <c r="B11" s="2">
         <f ca="1"/>
-        <v>0.5829068143359748</v>
+        <v>0.56374406132998167</v>
       </c>
       <c r="C11" s="2"/>
     </row>
@@ -3412,7 +3433,7 @@
       </c>
       <c r="B12" s="2">
         <f ca="1"/>
-        <v>0.60005796520952781</v>
+        <v>0.57131383570053829</v>
       </c>
       <c r="C12" s="2"/>
     </row>
@@ -3422,7 +3443,7 @@
       </c>
       <c r="B13" s="2">
         <f ca="1"/>
-        <v>0.61720911608308093</v>
+        <v>0.57888361007109479</v>
       </c>
       <c r="C13" s="2"/>
     </row>
@@ -3432,7 +3453,7 @@
       </c>
       <c r="B14" s="2">
         <f ca="1"/>
-        <v>0.63436026695663406</v>
+        <v>0.5864533844416514</v>
       </c>
       <c r="C14" s="2"/>
     </row>
@@ -3442,7 +3463,7 @@
       </c>
       <c r="B15" s="2">
         <f ca="1"/>
-        <v>0.65151141783018718</v>
+        <v>0.59402315881220802</v>
       </c>
       <c r="C15" s="2"/>
     </row>
@@ -3452,7 +3473,7 @@
       </c>
       <c r="B16" s="2">
         <f ca="1"/>
-        <v>0.66866256870374019</v>
+        <v>0.60159293318276452</v>
       </c>
       <c r="C16" s="2"/>
     </row>
@@ -3462,7 +3483,7 @@
       </c>
       <c r="B17" s="2">
         <f ca="1"/>
-        <v>0.68581371957729331</v>
+        <v>0.60916270755332114</v>
       </c>
       <c r="C17" s="2"/>
     </row>
@@ -3472,7 +3493,7 @@
       </c>
       <c r="B18" s="2">
         <f ca="1"/>
-        <v>0.70296487045084644</v>
+        <v>0.61673248192387764</v>
       </c>
       <c r="C18" s="2"/>
     </row>
@@ -3482,7 +3503,7 @@
       </c>
       <c r="B19" s="2">
         <f ca="1"/>
-        <v>0.72011602132439956</v>
+        <v>0.62430225629443425</v>
       </c>
       <c r="C19" s="2"/>
     </row>
@@ -3492,7 +3513,7 @@
       </c>
       <c r="B20" s="2">
         <f ca="1"/>
-        <v>0.73726717219795268</v>
+        <v>0.63187203066499087</v>
       </c>
       <c r="C20" s="2"/>
     </row>
@@ -3502,7 +3523,7 @@
       </c>
       <c r="B21" s="2">
         <f ca="1"/>
-        <v>0.7544183230715058</v>
+        <v>0.63944180503554737</v>
       </c>
       <c r="C21" s="2"/>
     </row>
@@ -3512,7 +3533,7 @@
       </c>
       <c r="B22" s="2">
         <f ca="1"/>
-        <v>0.77156947394505881</v>
+        <v>0.64701157940610399</v>
       </c>
       <c r="C22" s="2"/>
     </row>
@@ -3522,7 +3543,7 @@
       </c>
       <c r="B23" s="2">
         <f ca="1"/>
-        <v>0.78872062481861194</v>
+        <v>0.65458135377666049</v>
       </c>
       <c r="C23" s="2"/>
     </row>
@@ -3532,7 +3553,7 @@
       </c>
       <c r="B24" s="2">
         <f ca="1"/>
-        <v>0.80587177569216506</v>
+        <v>0.66215112814721711</v>
       </c>
       <c r="C24" s="2"/>
     </row>
@@ -3542,7 +3563,7 @@
       </c>
       <c r="B25" s="2">
         <f ca="1"/>
-        <v>0.82302292656571818</v>
+        <v>0.66972090251777372</v>
       </c>
       <c r="C25" s="2"/>
     </row>
@@ -3552,7 +3573,7 @@
       </c>
       <c r="B26" s="2">
         <f ca="1"/>
-        <v>0.84017407743927131</v>
+        <v>0.67729067688833022</v>
       </c>
       <c r="C26" s="2"/>
     </row>
@@ -3562,7 +3583,7 @@
       </c>
       <c r="B27" s="2">
         <f ca="1"/>
-        <v>0.85732522831282432</v>
+        <v>0.68486045125888684</v>
       </c>
       <c r="C27" s="2"/>
     </row>
@@ -3572,7 +3593,7 @@
       </c>
       <c r="B28" s="2">
         <f ca="1"/>
-        <v>0.87447637918637744</v>
+        <v>0.69243022562944334</v>
       </c>
       <c r="C28" s="2"/>
     </row>
@@ -3582,7 +3603,7 @@
       </c>
       <c r="B29" s="2">
         <f ca="1"/>
-        <v>0.89162753005993056</v>
+        <v>0.7</v>
       </c>
       <c r="C29" s="2"/>
     </row>
@@ -3592,7 +3613,7 @@
       </c>
       <c r="B30" s="2">
         <f ca="1"/>
-        <v>0.89613867388476065</v>
+        <v>0.6865</v>
       </c>
       <c r="C30" s="2"/>
     </row>
@@ -3602,7 +3623,7 @@
       </c>
       <c r="B31" s="2">
         <f ca="1"/>
-        <v>0.90064981770959085</v>
+        <v>0.67299999999999993</v>
       </c>
       <c r="C31" s="2"/>
     </row>
@@ -3612,7 +3633,7 @@
       </c>
       <c r="B32" s="2">
         <f ca="1"/>
-        <v>0.90516096153442094</v>
+        <v>0.65949999999999998</v>
       </c>
       <c r="C32" s="2"/>
     </row>
@@ -3622,7 +3643,7 @@
       </c>
       <c r="B33" s="2">
         <f ca="1"/>
-        <v>0.90967210535925103</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="C33" s="2"/>
     </row>
@@ -3632,7 +3653,7 @@
       </c>
       <c r="B34" s="2">
         <f ca="1"/>
-        <v>0.91418324918408123</v>
+        <v>0.63249999999999995</v>
       </c>
       <c r="C34" s="2"/>
     </row>
@@ -3642,7 +3663,7 @@
       </c>
       <c r="B35" s="2">
         <f ca="1"/>
-        <v>0.91869439300891131</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="C35" s="2"/>
     </row>
@@ -3652,7 +3673,7 @@
       </c>
       <c r="B36" s="2">
         <f ca="1"/>
-        <v>0.92320553683374151</v>
+        <v>0.60549999999999993</v>
       </c>
       <c r="C36" s="2"/>
     </row>
@@ -3662,7 +3683,7 @@
       </c>
       <c r="B37" s="2">
         <f ca="1"/>
-        <v>0.9277166806585716</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="C37" s="2"/>
     </row>
@@ -3672,7 +3693,7 @@
       </c>
       <c r="B38" s="2">
         <f ca="1"/>
-        <v>0.93222782448340169</v>
+        <v>0.57850000000000001</v>
       </c>
       <c r="C38" s="2"/>
     </row>
@@ -3682,7 +3703,7 @@
       </c>
       <c r="B39" s="2">
         <f ca="1"/>
-        <v>0.93673896830823189</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="C39" s="2"/>
     </row>
@@ -3692,7 +3713,7 @@
       </c>
       <c r="B40" s="2">
         <f ca="1"/>
-        <v>0.94125011213306198</v>
+        <v>0.55149999999999999</v>
       </c>
       <c r="C40" s="2"/>
     </row>
@@ -3702,7 +3723,7 @@
       </c>
       <c r="B41" s="2">
         <f ca="1"/>
-        <v>0.94576125595789207</v>
+        <v>0.53799999999999992</v>
       </c>
       <c r="C41" s="2"/>
     </row>
@@ -3712,7 +3733,7 @@
       </c>
       <c r="B42" s="2">
         <f ca="1"/>
-        <v>0.95027239978272227</v>
+        <v>0.52449999999999997</v>
       </c>
       <c r="C42" s="2"/>
     </row>
@@ -3722,7 +3743,7 @@
       </c>
       <c r="B43" s="2">
         <f ca="1"/>
-        <v>0.95478354360755235</v>
+        <v>0.5109999999999999</v>
       </c>
       <c r="C43" s="2"/>
     </row>
@@ -3732,7 +3753,7 @@
       </c>
       <c r="B44" s="2">
         <f ca="1"/>
-        <v>0.95929468743238244</v>
+        <v>0.4975</v>
       </c>
       <c r="C44" s="2"/>
     </row>
@@ -3742,7 +3763,7 @@
       </c>
       <c r="B45" s="2">
         <f ca="1"/>
-        <v>0.96380583125721264</v>
+        <v>0.48400000000000004</v>
       </c>
       <c r="C45" s="2"/>
     </row>
@@ -3752,7 +3773,7 @@
       </c>
       <c r="B46" s="2">
         <f ca="1"/>
-        <v>0.96831697508204273</v>
+        <v>0.47049999999999997</v>
       </c>
       <c r="C46" s="2"/>
     </row>
@@ -3762,7 +3783,7 @@
       </c>
       <c r="B47" s="2">
         <f ca="1"/>
-        <v>0.97282811890687282</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="C47" s="2"/>
     </row>
@@ -3772,7 +3793,7 @@
       </c>
       <c r="B48" s="2">
         <f ca="1"/>
-        <v>0.97733926273170302</v>
+        <v>0.44349999999999995</v>
       </c>
       <c r="C48" s="2"/>
     </row>
@@ -3782,7 +3803,7 @@
       </c>
       <c r="B49" s="2">
         <f ca="1"/>
-        <v>0.98185040655653311</v>
+        <v>0.43</v>
       </c>
       <c r="C49" s="2"/>
     </row>
@@ -3792,7 +3813,7 @@
       </c>
       <c r="B50" s="2">
         <f ca="1"/>
-        <v>0.94120779890315476</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="C50" s="2"/>
     </row>
@@ -3802,7 +3823,7 @@
       </c>
       <c r="B51" s="2">
         <f ca="1"/>
-        <v>0.90056519124977608</v>
+        <v>0.42</v>
       </c>
       <c r="C51" s="2"/>
     </row>
@@ -3812,7 +3833,7 @@
       </c>
       <c r="B52" s="2">
         <f ca="1"/>
-        <v>0.85992258359639773</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="C52" s="2"/>
     </row>
@@ -3822,7 +3843,7 @@
       </c>
       <c r="B53" s="2">
         <f ca="1"/>
-        <v>0.81927997594301905</v>
+        <v>0.41</v>
       </c>
       <c r="C53" s="2"/>
     </row>
@@ -3832,7 +3853,7 @@
       </c>
       <c r="B54" s="2">
         <f ca="1"/>
-        <v>0.7786373682896407</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="C54" s="2"/>
     </row>
@@ -3842,7 +3863,7 @@
       </c>
       <c r="B55" s="2">
         <f ca="1"/>
-        <v>0.73799476063626246</v>
+        <v>0.4</v>
       </c>
       <c r="C55" s="2"/>
     </row>
@@ -3852,7 +3873,7 @@
       </c>
       <c r="B56" s="2">
         <f ca="1"/>
-        <v>0.69735215298288367</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="C56" s="2"/>
     </row>
@@ -3862,7 +3883,7 @@
       </c>
       <c r="B57" s="2">
         <f ca="1"/>
-        <v>0.65670954532950532</v>
+        <v>0.39</v>
       </c>
       <c r="C57" s="2"/>
     </row>
@@ -3872,7 +3893,7 @@
       </c>
       <c r="B58" s="2">
         <f ca="1"/>
-        <v>0.61606693767612675</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="C58" s="2"/>
     </row>
@@ -3882,7 +3903,7 @@
       </c>
       <c r="B59" s="2">
         <f ca="1"/>
-        <v>0.5754243300227484</v>
+        <v>0.38</v>
       </c>
       <c r="C59" s="2"/>
     </row>
@@ -3892,7 +3913,7 @@
       </c>
       <c r="B60" s="2">
         <f ca="1"/>
-        <v>0.53478172236937005</v>
+        <v>0.375</v>
       </c>
       <c r="C60" s="2"/>
     </row>
@@ -3902,7 +3923,7 @@
       </c>
       <c r="B61" s="2">
         <f ca="1"/>
-        <v>0.49413911471599131</v>
+        <v>0.37</v>
       </c>
       <c r="C61" s="2"/>
     </row>
@@ -3912,7 +3933,7 @@
       </c>
       <c r="B62" s="2">
         <f ca="1"/>
-        <v>0.45349650706261302</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="C62" s="2"/>
     </row>
@@ -3922,7 +3943,7 @@
       </c>
       <c r="B63" s="2">
         <f ca="1"/>
-        <v>0.41285389940923434</v>
+        <v>0.36</v>
       </c>
       <c r="C63" s="2"/>
     </row>
@@ -3932,7 +3953,7 @@
       </c>
       <c r="B64" s="2">
         <f ca="1"/>
-        <v>0.37221129175585199</v>
+        <v>0.35499999999999954</v>
       </c>
       <c r="C64" s="2"/>
     </row>
@@ -3942,7 +3963,7 @@
       </c>
       <c r="B65" s="2">
         <f ca="1"/>
-        <v>0.33156868410247764</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="C65" s="2"/>
     </row>
@@ -3952,7 +3973,7 @@
       </c>
       <c r="B66" s="2">
         <f ca="1"/>
-        <v>0.29092607644909896</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="C66" s="2"/>
     </row>
@@ -3962,7 +3983,7 @@
       </c>
       <c r="B67" s="2">
         <f ca="1"/>
-        <v>0.25028346879571661</v>
+        <v>0.33999999999999952</v>
       </c>
       <c r="C67" s="2"/>
     </row>
@@ -3972,7 +3993,7 @@
       </c>
       <c r="B68" s="2">
         <f ca="1"/>
-        <v>0.20964086114233793</v>
+        <v>0.33499999999999952</v>
       </c>
       <c r="C68" s="2"/>
     </row>
@@ -3982,7 +4003,7 @@
       </c>
       <c r="B69" s="2">
         <f ca="1"/>
-        <v>0.16899825348896311</v>
+        <v>0.33000000000000279</v>
       </c>
       <c r="C69" s="2"/>
     </row>
@@ -3992,7 +4013,7 @@
       </c>
       <c r="B70" s="2">
         <f ca="1"/>
-        <v>0.16424875834332089</v>
+        <v>0.35849999999999993</v>
       </c>
       <c r="C70" s="2"/>
     </row>
@@ -4002,7 +4023,7 @@
       </c>
       <c r="B71" s="2">
         <f ca="1"/>
-        <v>0.15949926319767768</v>
+        <v>0.38700000000000284</v>
       </c>
       <c r="C71" s="2"/>
     </row>
@@ -4012,7 +4033,7 @@
       </c>
       <c r="B72" s="2">
         <f ca="1"/>
-        <v>0.154749768052035</v>
+        <v>0.41550000000000276</v>
       </c>
       <c r="C72" s="2"/>
     </row>
@@ -4022,7 +4043,7 @@
       </c>
       <c r="B73" s="2">
         <f ca="1"/>
-        <v>0.15000027290639228</v>
+        <v>0.44400000000000295</v>
       </c>
       <c r="C73" s="2"/>
     </row>
@@ -4032,7 +4053,7 @@
       </c>
       <c r="B74" s="2">
         <f ca="1"/>
-        <v>0.14525077776074957</v>
+        <v>0.47250000000000281</v>
       </c>
       <c r="C74" s="2"/>
     </row>
@@ -4042,7 +4063,7 @@
       </c>
       <c r="B75" s="2">
         <f ca="1"/>
-        <v>0.14050128261510686</v>
+        <v>0.501000000000003</v>
       </c>
       <c r="C75" s="2"/>
     </row>
@@ -4052,7 +4073,7 @@
       </c>
       <c r="B76" s="2">
         <f ca="1"/>
-        <v>0.13575178746946415</v>
+        <v>0.52950000000000286</v>
       </c>
       <c r="C76" s="2"/>
     </row>
@@ -4062,7 +4083,7 @@
       </c>
       <c r="B77" s="2">
         <f ca="1"/>
-        <v>0.13100229232382146</v>
+        <v>0.55800000000000272</v>
       </c>
       <c r="C77" s="2"/>
     </row>
@@ -4072,7 +4093,7 @@
       </c>
       <c r="B78" s="2">
         <f ca="1"/>
-        <v>0.12625279717817872</v>
+        <v>0.58650000000000291</v>
       </c>
       <c r="C78" s="2"/>
     </row>
@@ -4082,7 +4103,7 @@
       </c>
       <c r="B79" s="2">
         <f ca="1"/>
-        <v>0.12150330203253601</v>
+        <v>0.6150000000000031</v>
       </c>
       <c r="C79" s="2"/>
     </row>
@@ -4092,7 +4113,7 @@
       </c>
       <c r="B80" s="2">
         <f ca="1"/>
-        <v>0.11675380688689331</v>
+        <v>0.64350000000000296</v>
       </c>
       <c r="C80" s="2"/>
     </row>
@@ -4102,7 +4123,7 @@
       </c>
       <c r="B81" s="2">
         <f ca="1"/>
-        <v>0.11200431174125063</v>
+        <v>0.67200000000000282</v>
       </c>
       <c r="C81" s="2"/>
     </row>
@@ -4112,7 +4133,7 @@
       </c>
       <c r="B82" s="2">
         <f ca="1"/>
-        <v>0.10725481659560793</v>
+        <v>0.70050000000000279</v>
       </c>
       <c r="C82" s="2"/>
     </row>
@@ -4122,7 +4143,7 @@
       </c>
       <c r="B83" s="2">
         <f ca="1"/>
-        <v>0.10250532144996524</v>
+        <v>0.72900000000000276</v>
       </c>
       <c r="C83" s="2"/>
     </row>
@@ -4132,7 +4153,7 @@
       </c>
       <c r="B84" s="2">
         <f ca="1"/>
-        <v>9.7755826304322474E-2</v>
+        <v>0.75750000000000317</v>
       </c>
       <c r="C84" s="2"/>
     </row>
@@ -4142,7 +4163,7 @@
       </c>
       <c r="B85" s="2">
         <f ca="1"/>
-        <v>9.3006331158679775E-2</v>
+        <v>0.78600000000000292</v>
       </c>
       <c r="C85" s="2"/>
     </row>
@@ -4152,7 +4173,7 @@
       </c>
       <c r="B86" s="2">
         <f ca="1"/>
-        <v>8.825683601303709E-2</v>
+        <v>0.81450000000000289</v>
       </c>
       <c r="C86" s="2"/>
     </row>
@@ -4162,7 +4183,7 @@
       </c>
       <c r="B87" s="2">
         <f ca="1"/>
-        <v>8.3507340867394392E-2</v>
+        <v>0.84300000000000286</v>
       </c>
       <c r="C87" s="2"/>
     </row>
@@ -4172,7 +4193,7 @@
       </c>
       <c r="B88" s="2">
         <f ca="1"/>
-        <v>7.8757845721751707E-2</v>
+        <v>0.87150000000000261</v>
       </c>
       <c r="C88" s="2"/>
     </row>
@@ -4182,7 +4203,7 @@
       </c>
       <c r="B89" s="2">
         <f ca="1"/>
-        <v>7.4008350576109438E-2</v>
+        <v>0.9</v>
       </c>
       <c r="C89" s="2"/>
     </row>
@@ -4199,7 +4220,7 @@
   <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4242,7 +4263,7 @@
       </c>
       <c r="E2" t="str" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">_xll.INTERP1.NEW.CUBIC(E1,A2:A6,B2:B6,H2:H3,I2:I3)</f>
-        <v>~Interp1~my.interp.cubic~2F471DD8</v>
+        <v>~Interp1~my.interp.cubic~25F88A00</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -4256,7 +4277,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>0.89162753005993056</v>
+        <v>0.7</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -4270,13 +4291,12 @@
         <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>0.98185040655653311</v>
+        <v>0.43</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4">
-        <f ca="1">#REF!</f>
         <v>6.5</v>
       </c>
     </row>
@@ -4285,14 +4305,14 @@
         <v>7</v>
       </c>
       <c r="B5" s="4">
-        <v>0.16899825348896358</v>
+        <v>0.33</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="2" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">_xll.INTERP1.GET(E2,E4)</f>
-        <v>0.81745608593650254</v>
+        <v>0.29534474776533642</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -4300,12 +4320,11 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>7.4008350576109438E-2</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -4330,7 +4349,7 @@
       </c>
       <c r="B11" s="2">
         <f t="array" aca="1" ref="B11:B89" ca="1">_xll.INTERP1.GET(E2,A11:A89)</f>
-        <v>0.10969931594076071</v>
+        <v>0.56181277354905823</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -4339,7 +4358,7 @@
       </c>
       <c r="B12" s="2">
         <f ca="1"/>
-        <v>9.4525555335239916E-2</v>
+        <v>0.57493624523722331</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -4348,7 +4367,7 @@
       </c>
       <c r="B13" s="2">
         <f ca="1"/>
-        <v>7.9725326923614254E-2</v>
+        <v>0.5878901383813393</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -4357,7 +4376,7 @@
       </c>
       <c r="B14" s="2">
         <f ca="1"/>
-        <v>6.5485396802831275E-2</v>
+        <v>0.60058966370938149</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -4366,7 +4385,7 @@
       </c>
       <c r="B15" s="2">
         <f ca="1"/>
-        <v>5.199253106983856E-2</v>
+        <v>0.61295003194932562</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -4375,7 +4394,7 @@
       </c>
       <c r="B16" s="2">
         <f ca="1"/>
-        <v>3.9433495821583675E-2</v>
+        <v>0.62488645382914698</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -4384,7 +4403,7 @@
       </c>
       <c r="B17" s="2">
         <f ca="1"/>
-        <v>2.7995057155014227E-2</v>
+        <v>0.63631414007682086</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -4393,7 +4412,7 @@
       </c>
       <c r="B18" s="2">
         <f ca="1"/>
-        <v>1.7863981167077755E-2</v>
+        <v>0.64714830142032287</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -4402,7 +4421,7 @@
       </c>
       <c r="B19" s="2">
         <f ca="1"/>
-        <v>9.2270339547217833E-3</v>
+        <v>0.65730414858762853</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -4411,7 +4430,7 @@
       </c>
       <c r="B20" s="2">
         <f ca="1"/>
-        <v>2.2709816148939327E-3</v>
+        <v>0.66669689230671303</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -4420,7 +4439,7 @@
       </c>
       <c r="B21" s="2">
         <f ca="1"/>
-        <v>-2.8174097554582306E-3</v>
+        <v>0.67524174330555209</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -4429,7 +4448,7 @@
       </c>
       <c r="B22" s="2">
         <f ca="1"/>
-        <v>-5.8513740593871544E-3</v>
+        <v>0.68285391231212089</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -4438,7 +4457,7 @@
       </c>
       <c r="B23" s="2">
         <f ca="1"/>
-        <v>-6.6441451999452589E-3</v>
+        <v>0.68944861005439506</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -4447,7 +4466,7 @@
       </c>
       <c r="B24" s="2">
         <f ca="1"/>
-        <v>-5.008957080184992E-3</v>
+        <v>0.69494104726034989</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -4456,7 +4475,7 @@
       </c>
       <c r="B25" s="2">
         <f ca="1"/>
-        <v>-7.5904360315877384E-4</v>
+        <v>0.69924643465796099</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -4465,7 +4484,7 @@
       </c>
       <c r="B26" s="2">
         <f ca="1"/>
-        <v>6.2923613280809754E-3</v>
+        <v>0.70227998297520378</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -4474,7 +4493,7 @@
       </c>
       <c r="B27" s="2">
         <f ca="1"/>
-        <v>1.6332023810481787E-2</v>
+        <v>0.70395690294005364</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -4483,7 +4502,7 @@
       </c>
       <c r="B28" s="2">
         <f ca="1"/>
-        <v>2.9546709940991199E-2</v>
+        <v>0.70419240528048599</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -4492,7 +4511,7 @@
       </c>
       <c r="B29" s="2">
         <f ca="1"/>
-        <v>4.6123185816556875E-2</v>
+        <v>0.70290170072447622</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -4501,7 +4520,7 @@
       </c>
       <c r="B30" s="2">
         <f ca="1"/>
-        <v>6.6248217534126352E-2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -4510,7 +4529,7 @@
       </c>
       <c r="B31" s="2">
         <f ca="1"/>
-        <v>9.0016737706054395E-2</v>
+        <v>0.69543462867113059</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -4519,7 +4538,7 @@
       </c>
       <c r="B32" s="2">
         <f ca="1"/>
-        <v>0.11715634500632469</v>
+        <v>0.68928137164633463</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -4528,7 +4547,7 @@
       </c>
       <c r="B33" s="2">
         <f ca="1"/>
-        <v>0.14730280462432804</v>
+        <v>0.68164812867017643</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -4537,7 +4556,7 @@
       </c>
       <c r="B34" s="2">
         <f ca="1"/>
-        <v>0.18009188174945556</v>
+        <v>0.67264279948722028</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -4546,7 +4565,7 @@
       </c>
       <c r="B35" s="2">
         <f ca="1"/>
-        <v>0.21515934157109801</v>
+        <v>0.66237328384203076</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -4555,7 +4574,7 @@
       </c>
       <c r="B36" s="2">
         <f ca="1"/>
-        <v>0.25214094927864639</v>
+        <v>0.65094748147917236</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -4564,7 +4583,7 @@
       </c>
       <c r="B37" s="2">
         <f ca="1"/>
-        <v>0.29067247006149144</v>
+        <v>0.63847329214320936</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -4573,7 +4592,7 @@
       </c>
       <c r="B38" s="2">
         <f ca="1"/>
-        <v>0.33038966910902406</v>
+        <v>0.62505861557870634</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -4582,7 +4601,7 @@
       </c>
       <c r="B39" s="2">
         <f ca="1"/>
-        <v>0.37092831161063539</v>
+        <v>0.6108113515302277</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -4591,7 +4610,7 @@
       </c>
       <c r="B40" s="2">
         <f ca="1"/>
-        <v>0.41192416275571619</v>
+        <v>0.59583939974233768</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -4600,7 +4619,7 @@
       </c>
       <c r="B41" s="2">
         <f ca="1"/>
-        <v>0.45301298773365717</v>
+        <v>0.58025065995960123</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -4609,7 +4628,7 @@
       </c>
       <c r="B42" s="2">
         <f ca="1"/>
-        <v>0.49383055173384977</v>
+        <v>0.56415303192658217</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -4618,7 +4637,7 @@
       </c>
       <c r="B43" s="2">
         <f ca="1"/>
-        <v>0.53401261994568427</v>
+        <v>0.54765441538784532</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -4627,7 +4646,7 @@
       </c>
       <c r="B44" s="2">
         <f ca="1"/>
-        <v>0.5731949575585521</v>
+        <v>0.53086271008795505</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -4636,7 +4655,7 @@
       </c>
       <c r="B45" s="2">
         <f ca="1"/>
-        <v>0.61101332976184353</v>
+        <v>0.51388581577147585</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -4645,7 +4664,7 @@
       </c>
       <c r="B46" s="2">
         <f ca="1"/>
-        <v>0.64710350174495002</v>
+        <v>0.4968316321829721</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -4654,7 +4673,7 @@
       </c>
       <c r="B47" s="2">
         <f ca="1"/>
-        <v>0.68110123869726236</v>
+        <v>0.47980805906700807</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -4663,7 +4682,7 @@
       </c>
       <c r="B48" s="2">
         <f ca="1"/>
-        <v>0.71264230580817123</v>
+        <v>0.46292299616814853</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -4672,7 +4691,7 @@
       </c>
       <c r="B49" s="2">
         <f ca="1"/>
-        <v>0.74136246826706786</v>
+        <v>0.44628434323095761</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -4681,7 +4700,7 @@
       </c>
       <c r="B50" s="2">
         <f ca="1"/>
-        <v>0.76689749126334283</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -4690,7 +4709,7 @@
       </c>
       <c r="B51" s="2">
         <f ca="1"/>
-        <v>0.78897126729200417</v>
+        <v>0.41417600574730018</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -4699,7 +4718,7 @@
       </c>
       <c r="B52" s="2">
         <f ca="1"/>
-        <v>0.80766019807052902</v>
+        <v>0.39891095785472297</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -4708,7 +4727,7 @@
       </c>
       <c r="B53" s="2">
         <f ca="1"/>
-        <v>0.82312881262201021</v>
+        <v>0.38430159323159391</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -4717,7 +4736,7 @@
       </c>
       <c r="B54" s="2">
         <f ca="1"/>
-        <v>0.83554163996954189</v>
+        <v>0.37044464878723771</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -4726,7 +4745,7 @@
       </c>
       <c r="B55" s="2">
         <f ca="1"/>
-        <v>0.84506320913621746</v>
+        <v>0.35743686143097991</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -4735,7 +4754,7 @@
       </c>
       <c r="B56" s="2">
         <f ca="1"/>
-        <v>0.85185804914513097</v>
+        <v>0.34537496807214546</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -4744,7 +4763,7 @@
       </c>
       <c r="B57" s="2">
         <f ca="1"/>
-        <v>0.85609068901937568</v>
+        <v>0.33435570562005945</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -4753,7 +4772,7 @@
       </c>
       <c r="B58" s="2">
         <f ca="1"/>
-        <v>0.85792565778204555</v>
+        <v>0.32447581098404721</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -4762,7 +4781,7 @@
       </c>
       <c r="B59" s="2">
         <f ca="1"/>
-        <v>0.85752748445623395</v>
+        <v>0.31583202107343372</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -4771,7 +4790,7 @@
       </c>
       <c r="B60" s="2">
         <f ca="1"/>
-        <v>0.85506069806503482</v>
+        <v>0.30852107279754426</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -4780,7 +4799,7 @@
       </c>
       <c r="B61" s="2">
         <f ca="1"/>
-        <v>0.85068982763154177</v>
+        <v>0.30263970306570387</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -4789,7 +4808,7 @@
       </c>
       <c r="B62" s="2">
         <f ca="1"/>
-        <v>0.84457940217884819</v>
+        <v>0.29828464878723776</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -4798,7 +4817,7 @@
       </c>
       <c r="B63" s="2">
         <f ca="1"/>
-        <v>0.83689395073004802</v>
+        <v>0.29555264687147104</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -4807,7 +4826,7 @@
       </c>
       <c r="B64" s="2">
         <f ca="1"/>
-        <v>0.82779800230823486</v>
+        <v>0.29454043422772891</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -4816,7 +4835,7 @@
       </c>
       <c r="B65" s="2">
         <f ca="1"/>
-        <v>0.81745608593650143</v>
+        <v>0.29534474776533665</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -4825,7 +4844,7 @@
       </c>
       <c r="B66" s="2">
         <f ca="1"/>
-        <v>0.80603273063794434</v>
+        <v>0.29806232439361885</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -4834,7 +4853,7 @@
       </c>
       <c r="B67" s="2">
         <f ca="1"/>
-        <v>0.79369246543565408</v>
+        <v>0.30278990102190129</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -4843,7 +4862,7 @@
       </c>
       <c r="B68" s="2">
         <f ca="1"/>
-        <v>0.78059981935272449</v>
+        <v>0.30962421455950961</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -4852,7 +4871,7 @@
       </c>
       <c r="B69" s="2">
         <f ca="1"/>
-        <v>0.76691932141225105</v>
+        <v>0.31866200191576771</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -4861,7 +4880,7 @@
       </c>
       <c r="B70" s="2">
         <f ca="1"/>
-        <v>0.75281550063732694</v>
+        <v>0.33000000000000124</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -4870,7 +4889,7 @@
       </c>
       <c r="B71" s="2">
         <f ca="1"/>
-        <v>0.73842762116229244</v>
+        <v>0.34369884833966879</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -4879,7 +4898,7 @@
       </c>
       <c r="B72" s="2">
         <f ca="1"/>
-        <v>0.72379388756646557</v>
+        <v>0.359674796934775</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -4888,7 +4907,7 @@
       </c>
       <c r="B73" s="2">
         <f ca="1"/>
-        <v>0.70892723954041881</v>
+        <v>0.37780799840345008</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -4897,7 +4916,7 @@
       </c>
       <c r="B74" s="2">
         <f ca="1"/>
-        <v>0.69384061677471798</v>
+        <v>0.3979786053638309</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -4906,7 +4925,7 @@
       </c>
       <c r="B75" s="2">
         <f ca="1"/>
-        <v>0.67854695895993133</v>
+        <v>0.42006677043405188</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -4915,7 +4934,7 @@
       </c>
       <c r="B76" s="2">
         <f ca="1"/>
-        <v>0.66305920578662669</v>
+        <v>0.44395264623224856</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -4924,7 +4943,7 @@
       </c>
       <c r="B77" s="2">
         <f ca="1"/>
-        <v>0.64739029694537198</v>
+        <v>0.46951638537655538</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -4933,7 +4952,7 @@
       </c>
       <c r="B78" s="2">
         <f ca="1"/>
-        <v>0.63155317212673501</v>
+        <v>0.49663814048510757</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -4942,7 +4961,7 @@
       </c>
       <c r="B79" s="2">
         <f ca="1"/>
-        <v>0.61556077102128337</v>
+        <v>0.52519806417604042</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -4951,7 +4970,7 @@
       </c>
       <c r="B80" s="2">
         <f ca="1"/>
-        <v>0.59942603331958533</v>
+        <v>0.55507630906748862</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -4960,7 +4979,7 @@
       </c>
       <c r="B81" s="2">
         <f ca="1"/>
-        <v>0.58316189871220869</v>
+        <v>0.58615302777758671</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -4969,7 +4988,7 @@
       </c>
       <c r="B82" s="2">
         <f ca="1"/>
-        <v>0.56678130688972128</v>
+        <v>0.61830837292447005</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -4978,7 +4997,7 @@
       </c>
       <c r="B83" s="2">
         <f ca="1"/>
-        <v>0.55029719754269091</v>
+        <v>0.65142249712627354</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -4987,7 +5006,7 @@
       </c>
       <c r="B84" s="2">
         <f ca="1"/>
-        <v>0.53372251036168539</v>
+        <v>0.68537555300113251</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -4996,7 +5015,7 @@
       </c>
       <c r="B85" s="2">
         <f ca="1"/>
-        <v>0.51707018503727242</v>
+        <v>0.72004769316718198</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -5005,7 +5024,7 @@
       </c>
       <c r="B86" s="2">
         <f ca="1"/>
-        <v>0.5003531612600205</v>
+        <v>0.75531907024255607</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -5014,7 +5033,7 @@
       </c>
       <c r="B87" s="2">
         <f ca="1"/>
-        <v>0.48358437872049698</v>
+        <v>0.79106983684539023</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -5023,7 +5042,7 @@
       </c>
       <c r="B88" s="2">
         <f ca="1"/>
-        <v>0.46677677710927001</v>
+        <v>0.82718014559381969</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -5032,7 +5051,7 @@
       </c>
       <c r="B89" s="2">
         <f ca="1"/>
-        <v>0.44994329611690714</v>
+        <v>0.86353014910597903</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -5041,7 +5060,7 @@
       </c>
       <c r="B90" s="2">
         <f ca="1">B6</f>
-        <v>0.43309687543397801</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -5049,4 +5068,173 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88FA38FE-55A4-462D-8494-70A99A2DF220}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="6" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>5</v>
+      </c>
+      <c r="E1">
+        <v>7</v>
+      </c>
+      <c r="F1">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.16585158168944869</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.37894606335908976</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.9631560015365398</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.76680871057806166</v>
+      </c>
+      <c r="F2" s="2">
+        <v>6.2349232617800676E-2</v>
+      </c>
+      <c r="I2" t="str" cm="1">
+        <f t="array" aca="1" ref="I2" ca="1">_xll.INTERP2.NEW.LINEAR(I1,A2:A6,B1:F1,B2:F6)</f>
+        <v>~Interp2~my.interp2d.linear~20070FC0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.24776263338768079</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.13426169853642655</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.56479079921836683</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.16893269976563674</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.87991373151481767</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.60940972796660808</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.5452653906350361</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.3412179192861684</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2.506474632687683E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.29884974651773333</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.12149868760580851</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4.5312773828751762E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.36714546391811076</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.20740633756464943</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.69027509032111922</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.72035977921216054</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.2268476550885884</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.72769956646893763</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.19604151189965791</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.92933391580233393</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="2" cm="1">
+        <f t="array" aca="1" ref="I6" ca="1">_xll.INTERP2.GET(I2,I4,I5)</f>
+        <v>0.13426169853642655</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel/dal 101.xlsx
+++ b/excel/dal 101.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\github\dal\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DA378C-995A-4617-9989-16803024ED61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE01F71-061A-4E9B-90A7-697DE53BB503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{A658F64F-54DB-47F5-8888-F8582537DD58}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,6 +130,10 @@
   </si>
   <si>
     <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x/y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5072,10 +5076,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88FA38FE-55A4-462D-8494-70A99A2DF220}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5084,7 +5088,7 @@
     <col min="9" max="9" width="36.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -5110,7 +5114,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5131,10 +5135,10 @@
       </c>
       <c r="I2" t="str" cm="1">
         <f t="array" aca="1" ref="I2" ca="1">_xll.INTERP2.NEW.LINEAR(I1,A2:A6,B1:F1,B2:F6)</f>
-        <v>~Interp2~my.interp2d.linear~20070FC0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>~Interp2~my.interp2d.linear~2054B418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -5154,7 +5158,7 @@
         <v>0.87991373151481767</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -5180,7 +5184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>7</v>
       </c>
@@ -5206,7 +5210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>9</v>
       </c>
@@ -5231,6 +5235,407 @@
       <c r="I6" s="2" cm="1">
         <f t="array" aca="1" ref="I6" ca="1">_xll.INTERP2.GET(I2,I4,I5)</f>
         <v>0.13426169853642655</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" cm="1">
+        <f t="array" aca="1" ref="B12:J20" ca="1">_xll.INTERP2.GET(I2,A12:A20,B11:J11)</f>
+        <v>0.16585158168944869</v>
+      </c>
+      <c r="C12" s="2">
+        <f ca="1"/>
+        <v>0.27239882252426922</v>
+      </c>
+      <c r="D12" s="2">
+        <f ca="1"/>
+        <v>0.37894606335908976</v>
+      </c>
+      <c r="E12" s="2">
+        <f ca="1"/>
+        <v>0.67105103244781472</v>
+      </c>
+      <c r="F12" s="2">
+        <f ca="1"/>
+        <v>0.9631560015365398</v>
+      </c>
+      <c r="G12" s="2">
+        <f ca="1"/>
+        <v>0.86498235605730067</v>
+      </c>
+      <c r="H12" s="2">
+        <f ca="1"/>
+        <v>0.76680871057806166</v>
+      </c>
+      <c r="I12" s="2">
+        <f ca="1"/>
+        <v>0.41457897159793117</v>
+      </c>
+      <c r="J12" s="2">
+        <f ca="1"/>
+        <v>6.2349232617800676E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2">
+        <f ca="1"/>
+        <v>0.20680710753856474</v>
+      </c>
+      <c r="C13" s="2">
+        <f ca="1"/>
+        <v>0.23170549424316145</v>
+      </c>
+      <c r="D13" s="2">
+        <f ca="1"/>
+        <v>0.25660388094775816</v>
+      </c>
+      <c r="E13" s="2">
+        <f ca="1"/>
+        <v>0.51028864066260571</v>
+      </c>
+      <c r="F13" s="2">
+        <f ca="1"/>
+        <v>0.76397340037745332</v>
+      </c>
+      <c r="G13" s="2">
+        <f ca="1"/>
+        <v>0.61592205277465117</v>
+      </c>
+      <c r="H13" s="2">
+        <f ca="1"/>
+        <v>0.4678707051718492</v>
+      </c>
+      <c r="I13" s="2">
+        <f ca="1"/>
+        <v>0.46950109361907921</v>
+      </c>
+      <c r="J13" s="2">
+        <f ca="1"/>
+        <v>0.47113148206630917</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2">
+        <f ca="1"/>
+        <v>0.24776263338768079</v>
+      </c>
+      <c r="C14" s="2">
+        <f ca="1"/>
+        <v>0.19101216596205367</v>
+      </c>
+      <c r="D14" s="2">
+        <f ca="1"/>
+        <v>0.13426169853642655</v>
+      </c>
+      <c r="E14" s="2">
+        <f ca="1"/>
+        <v>0.34952624887739669</v>
+      </c>
+      <c r="F14" s="2">
+        <f ca="1"/>
+        <v>0.56479079921836683</v>
+      </c>
+      <c r="G14" s="2">
+        <f ca="1"/>
+        <v>0.36686174949200179</v>
+      </c>
+      <c r="H14" s="2">
+        <f ca="1"/>
+        <v>0.16893269976563674</v>
+      </c>
+      <c r="I14" s="2">
+        <f ca="1"/>
+        <v>0.5244232156402272</v>
+      </c>
+      <c r="J14" s="2">
+        <f ca="1"/>
+        <v>0.87991373151481767</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2">
+        <f ca="1"/>
+        <v>0.42858618067714443</v>
+      </c>
+      <c r="C15" s="2">
+        <f ca="1"/>
+        <v>0.38417486263143785</v>
+      </c>
+      <c r="D15" s="2">
+        <f ca="1"/>
+        <v>0.33976354458573133</v>
+      </c>
+      <c r="E15" s="2">
+        <f ca="1"/>
+        <v>0.39638395191899944</v>
+      </c>
+      <c r="F15" s="2">
+        <f ca="1"/>
+        <v>0.45300435925226762</v>
+      </c>
+      <c r="G15" s="2">
+        <f ca="1"/>
+        <v>0.27500154114926223</v>
+      </c>
+      <c r="H15" s="2">
+        <f ca="1"/>
+        <v>9.6998723046256785E-2</v>
+      </c>
+      <c r="I15" s="2">
+        <f ca="1"/>
+        <v>0.34319023103126611</v>
+      </c>
+      <c r="J15" s="2">
+        <f ca="1"/>
+        <v>0.58938173901627544</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2">
+        <f ca="1"/>
+        <v>0.60940972796660808</v>
+      </c>
+      <c r="C16" s="2">
+        <f ca="1"/>
+        <v>0.57733755930082209</v>
+      </c>
+      <c r="D16" s="2">
+        <f ca="1"/>
+        <v>0.5452653906350361</v>
+      </c>
+      <c r="E16" s="2">
+        <f ca="1"/>
+        <v>0.44324165496060225</v>
+      </c>
+      <c r="F16" s="2">
+        <f ca="1"/>
+        <v>0.3412179192861684</v>
+      </c>
+      <c r="G16" s="2">
+        <f ca="1"/>
+        <v>0.18314133280652262</v>
+      </c>
+      <c r="H16" s="2">
+        <f ca="1"/>
+        <v>2.506474632687683E-2</v>
+      </c>
+      <c r="I16" s="2">
+        <f ca="1"/>
+        <v>0.16195724642230508</v>
+      </c>
+      <c r="J16" s="2">
+        <f ca="1"/>
+        <v>0.29884974651773333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" s="2">
+        <f ca="1"/>
+        <v>0.3654542077862083</v>
+      </c>
+      <c r="C17" s="2">
+        <f ca="1"/>
+        <v>0.33037164500905114</v>
+      </c>
+      <c r="D17" s="2">
+        <f ca="1"/>
+        <v>0.29528908223189393</v>
+      </c>
+      <c r="E17" s="2">
+        <f ca="1"/>
+        <v>0.32473538691701676</v>
+      </c>
+      <c r="F17" s="2">
+        <f ca="1"/>
+        <v>0.35418169160213958</v>
+      </c>
+      <c r="G17" s="2">
+        <f ca="1"/>
+        <v>0.23520861677395136</v>
+      </c>
+      <c r="H17" s="2">
+        <f ca="1"/>
+        <v>0.11623554194576313</v>
+      </c>
+      <c r="I17" s="2">
+        <f ca="1"/>
+        <v>0.3053989801825947</v>
+      </c>
+      <c r="J17" s="2">
+        <f ca="1"/>
+        <v>0.49456241841942628</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18" s="2">
+        <f ca="1"/>
+        <v>0.12149868760580851</v>
+      </c>
+      <c r="C18" s="2">
+        <f ca="1"/>
+        <v>8.3405730717280135E-2</v>
+      </c>
+      <c r="D18" s="2">
+        <f ca="1"/>
+        <v>4.5312773828751762E-2</v>
+      </c>
+      <c r="E18" s="2">
+        <f ca="1"/>
+        <v>0.20622911887343126</v>
+      </c>
+      <c r="F18" s="2">
+        <f ca="1"/>
+        <v>0.36714546391811076</v>
+      </c>
+      <c r="G18" s="2">
+        <f ca="1"/>
+        <v>0.2872759007413801</v>
+      </c>
+      <c r="H18" s="2">
+        <f ca="1"/>
+        <v>0.20740633756464943</v>
+      </c>
+      <c r="I18" s="2">
+        <f ca="1"/>
+        <v>0.44884071394288433</v>
+      </c>
+      <c r="J18" s="2">
+        <f ca="1"/>
+        <v>0.69027509032111922</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2">
+        <f ca="1"/>
+        <v>0.42092923340898453</v>
+      </c>
+      <c r="C19" s="2">
+        <f ca="1"/>
+        <v>0.2785047239338273</v>
+      </c>
+      <c r="D19" s="2">
+        <f ca="1"/>
+        <v>0.13608021445867008</v>
+      </c>
+      <c r="E19" s="2">
+        <f ca="1"/>
+        <v>0.34175136482609714</v>
+      </c>
+      <c r="F19" s="2">
+        <f ca="1"/>
+        <v>0.54742251519352414</v>
+      </c>
+      <c r="G19" s="2">
+        <f ca="1"/>
+        <v>0.37457321996283893</v>
+      </c>
+      <c r="H19" s="2">
+        <f ca="1"/>
+        <v>0.20172392473215367</v>
+      </c>
+      <c r="I19" s="2">
+        <f ca="1"/>
+        <v>0.50576421389694015</v>
+      </c>
+      <c r="J19" s="2">
+        <f ca="1"/>
+        <v>0.80980450306172658</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20" s="2">
+        <f ca="1"/>
+        <v>0.72035977921216054</v>
+      </c>
+      <c r="C20" s="2">
+        <f ca="1"/>
+        <v>0.47360371715037447</v>
+      </c>
+      <c r="D20" s="2">
+        <f ca="1"/>
+        <v>0.2268476550885884</v>
+      </c>
+      <c r="E20" s="2">
+        <f ca="1"/>
+        <v>0.47727361077876301</v>
+      </c>
+      <c r="F20" s="2">
+        <f ca="1"/>
+        <v>0.72769956646893763</v>
+      </c>
+      <c r="G20" s="2">
+        <f ca="1"/>
+        <v>0.46187053918429777</v>
+      </c>
+      <c r="H20" s="2">
+        <f ca="1"/>
+        <v>0.19604151189965791</v>
+      </c>
+      <c r="I20" s="2">
+        <f ca="1"/>
+        <v>0.56268771385099592</v>
+      </c>
+      <c r="J20" s="2">
+        <f ca="1"/>
+        <v>0.92933391580233393</v>
       </c>
     </row>
   </sheetData>

--- a/excel/dal 101.xlsx
+++ b/excel/dal 101.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\github\dal\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F658512D-CB1B-4AA7-93C3-A3A825DF9E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0441611-7918-4072-96BC-559B5ECAC6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{A658F64F-54DB-47F5-8888-F8582537DD58}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{A658F64F-54DB-47F5-8888-F8582537DD58}"/>
   </bookViews>
   <sheets>
     <sheet name="linear Interp" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="linear interp 2D" sheetId="3" r:id="rId3"/>
     <sheet name="pseudo random" sheetId="4" r:id="rId4"/>
     <sheet name="sobol random" sheetId="5" r:id="rId5"/>
+    <sheet name="script" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,6 +171,10 @@
     <t>sobol</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>call pays MAX(spot() - 120, 0.0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -218,7 +223,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -233,6 +238,12 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -22142,7 +22153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68004832-4959-427C-BC92-94F61EF49DAC}">
   <dimension ref="A1:T211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -38604,4 +38615,134 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F20376B-A517-4185-B924-84028E73DAC7}">
+  <dimension ref="A2:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="106.75" customWidth="1"/>
+    <col min="2" max="3" width="58.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>45925</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="str" cm="1">
+        <f t="array" aca="1" ref="A4" ca="1">_xll.PRODUCT.NEW("ss",A2,B2)</f>
+        <v>~ScriptProduct~ss~00000196A0B6BA50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="str" cm="1">
+        <f t="array" aca="1" ref="A6:A21" ca="1">_xll.PRODUCT.DEBUG(A4)</f>
+        <v>Event: 1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f ca="1"/>
+        <v>Statement: 1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f ca="1"/>
+        <v>PAYS(</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> VAR[-1]</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f ca="1"/>
+        <v>,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> MAX(</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve">  MINUS(</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve">   SPOT</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve">  ,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve">   CONST[120.000000]</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve">  )</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve">  CONST[0.000000]</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> )</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="str">
+        <f ca="1"/>
+        <v>)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel/dal 101.xlsx
+++ b/excel/dal 101.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\github\dal\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0441611-7918-4072-96BC-559B5ECAC6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEF39E0-4B70-43F8-A557-B2FF852FBA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{A658F64F-54DB-47F5-8888-F8582537DD58}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +173,22 @@
   </si>
   <si>
     <t>call pays MAX(spot() - 120, 0.0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -38619,10 +38635,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F20376B-A517-4185-B924-84028E73DAC7}">
-  <dimension ref="A2:B21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -38631,81 +38647,113 @@
     <col min="2" max="3" width="58.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>45925</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="str" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_xll.PRODUCT.NEW("ss",A2,B2)</f>
         <v>~ScriptProduct~ss~00000196A0B6BA50</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="str" cm="1">
         <f t="array" aca="1" ref="A6:A21" ca="1">_xll.PRODUCT.DEBUG(A4)</f>
         <v>Event: 1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" t="str" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">_xll.BSMODELDATA.NEW("model",D1,D2,D3,D4)</f>
+        <v>~BSModelData_~model~000002093EAA3110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f ca="1"/>
         <v>Statement: 1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f ca="1"/>
         <v>PAYS(</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> VAR[-1]</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f ca="1"/>
         <v>,</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> MAX(</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  MINUS(</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f ca="1"/>
         <v xml:space="preserve">   SPOT</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  ,</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f ca="1"/>
         <v xml:space="preserve">   CONST[120.000000]</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  )</v>

--- a/excel/dal 101.xlsx
+++ b/excel/dal 101.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\github\dal\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEF39E0-4B70-43F8-A557-B2FF852FBA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6426B3D6-042B-4FA7-8E0E-C140D0D6BC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{A658F64F-54DB-47F5-8888-F8582537DD58}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -172,10 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>call pays MAX(spot() - 120, 0.0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>spot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,6 +185,10 @@
   </si>
   <si>
     <t>div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>call pays MAX(spot() - 120, 0.0)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -38635,10 +38635,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F20376B-A517-4185-B924-84028E73DAC7}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -38648,145 +38648,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C1" t="s">
+      <c r="A1" s="5">
+        <v>44829</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" cm="1">
+        <f t="array" aca="1" ref="A2" ca="1">_xll.EVALUATIONDATE.SET(A1)</f>
+        <v>44829</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>45925</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="D1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>45925</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
         <v>29</v>
-      </c>
-      <c r="D2">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="str" cm="1">
-        <f t="array" aca="1" ref="A4" ca="1">_xll.PRODUCT.NEW("ss",A2,B2)</f>
-        <v>~ScriptProduct~ss~00000196A0B6BA50</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="str" cm="1">
-        <f t="array" aca="1" ref="A6:A21" ca="1">_xll.PRODUCT.DEBUG(A4)</f>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="str" cm="1">
+        <f t="array" aca="1" ref="A5" ca="1">_xll.PRODUCT.NEW("my_product",A3,B3)</f>
+        <v>~ScriptProduct~my_product~000001F78B4EAA60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="str" cm="1">
+        <f t="array" aca="1" ref="A7:A22" ca="1">_xll.PRODUCT.DEBUG(A5)</f>
         <v>Event: 1</v>
       </c>
-      <c r="C6" t="str" cm="1">
-        <f t="array" aca="1" ref="C6" ca="1">_xll.BSMODELDATA.NEW("model",D1,D2,D3,D4)</f>
-        <v>~BSModelData_~model~000002093EAA3110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="str">
-        <f ca="1"/>
-        <v>Statement: 1</v>
+      <c r="C7" t="str" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">_xll.BSMODELDATA.NEW("model",D2,D3,D4,D5)</f>
+        <v>~BSModelData~model~000001F78446B820</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f ca="1"/>
-        <v>PAYS(</v>
+        <v>Statement: 1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f ca="1"/>
-        <v xml:space="preserve"> VAR[-1]</v>
+        <v>PAYS(</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f ca="1"/>
-        <v>,</v>
+        <v xml:space="preserve"> VAR[-1]</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f ca="1"/>
-        <v xml:space="preserve"> MAX(</v>
+        <v>,</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">  MINUS(</v>
+        <v xml:space="preserve"> MAX(</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   SPOT</v>
+        <v xml:space="preserve">  MINUS(</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">  ,</v>
+        <v xml:space="preserve">   SPOT</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[120.000000]</v>
+        <v xml:space="preserve">  ,</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f ca="1"/>
+        <v xml:space="preserve">   CONST[120.000000]</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="str">
+        <f ca="1"/>
         <v xml:space="preserve">  )</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="str">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> ,</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="str">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  CONST[0.000000]</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="str">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> )</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="str">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="str">
         <f ca="1"/>
         <v>)</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="str">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="str">
         <f ca="1"/>
         <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="str" cm="1">
+        <f t="array" aca="1" ref="A24:B24" ca="1">_xll.MONTECARLO.VALUE(A5,C7,2^20,"sobol",FALSE)</f>
+        <v>value</v>
+      </c>
+      <c r="B24" s="2">
+        <f ca="1"/>
+        <v>4.0389474364897877</v>
       </c>
     </row>
   </sheetData>

--- a/excel/dal 101.xlsx
+++ b/excel/dal 101.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\github\dal\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6426B3D6-042B-4FA7-8E0E-C140D0D6BC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36C976C-D838-4D28-9E54-F8D6966EF4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{A658F64F-54DB-47F5-8888-F8582537DD58}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -38635,10 +38635,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F20376B-A517-4185-B924-84028E73DAC7}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -38689,7 +38689,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="str" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_xll.PRODUCT.NEW("my_product",A3,B3)</f>
-        <v>~ScriptProduct~my_product~000001F78B4EAA60</v>
+        <v>~ScriptProduct~my_product~0000029A2FF687A0</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -38705,7 +38705,7 @@
       </c>
       <c r="C7" t="str" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">_xll.BSMODELDATA.NEW("model",D2,D3,D4,D5)</f>
-        <v>~BSModelData~model~000001F78446B820</v>
+        <v>~BSModelData~model~0000029A40A07900</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -38808,8 +38808,12 @@
         <v>4.0389474364897877</v>
       </c>
     </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel/dal 101.xlsx
+++ b/excel/dal 101.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\github\dal\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36C976C-D838-4D28-9E54-F8D6966EF4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B051F88-8E24-4E96-A315-1FE26E22DAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{A658F64F-54DB-47F5-8888-F8582537DD58}"/>
   </bookViews>
@@ -38635,10 +38635,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F20376B-A517-4185-B924-84028E73DAC7}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -38689,7 +38689,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="str" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_xll.PRODUCT.NEW("my_product",A3,B3)</f>
-        <v>~ScriptProduct~my_product~0000029A2FF687A0</v>
+        <v>~ScriptProduct~my_product~000001F00EF47480</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -38705,7 +38705,7 @@
       </c>
       <c r="C7" t="str" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">_xll.BSMODELDATA.NEW("model",D2,D3,D4,D5)</f>
-        <v>~BSModelData~model~0000029A40A07900</v>
+        <v>~BSModelData~model~000001F00F28DAF0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -38799,17 +38799,54 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="str" cm="1">
-        <f t="array" aca="1" ref="A24:B24" ca="1">_xll.MONTECARLO.VALUE(A5,C7,2^20,"sobol",FALSE)</f>
+      <c r="A24" t="str">
+        <f t="array" aca="1" ref="A24:B28" ca="1">_xll.MONTECARLO.VALUE(A5,C7,2^20,"sobol",FALSE,TRUE,0.01)</f>
+        <v>d_div</v>
+      </c>
+      <c r="B24" s="2">
+        <f ca="1"/>
+        <v>-85.228968760590448</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="str">
+        <f ca="1"/>
+        <v>d_rate</v>
+      </c>
+      <c r="B25">
+        <f ca="1"/>
+        <v>73.10106084118145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="str">
+        <f ca="1"/>
+        <v>d_spot</v>
+      </c>
+      <c r="B26">
+        <f ca="1"/>
+        <v>0.28383735034320723</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="str">
+        <f ca="1"/>
+        <v>d_vol</v>
+      </c>
+      <c r="B27" s="2">
+        <f ca="1"/>
+        <v>58.71397201095639</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="str">
+        <f ca="1"/>
         <v>value</v>
       </c>
-      <c r="B24" s="2">
-        <f ca="1"/>
-        <v>4.0389474364897877</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B27" s="2"/>
+      <c r="B28">
+        <f ca="1"/>
+        <v>4.0389474366644285</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel/dal 101.xlsx
+++ b/excel/dal 101.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\github\dal\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B051F88-8E24-4E96-A315-1FE26E22DAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FEA874-BBC5-49F5-BA35-E84D73E70531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{A658F64F-54DB-47F5-8888-F8582537DD58}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="37">
   <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,6 +189,25 @@
   </si>
   <si>
     <t>call pays MAX(spot() - 120, 0.0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if spot() &gt; 150 then alive = 0 endif</t>
+  </si>
+  <si>
+    <t>if spot() &gt; 150 then alive = 0 endif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uoc pays alive * MAX(spot() - 120, 0.0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alive = 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -38635,10 +38654,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F20376B-A517-4185-B924-84028E73DAC7}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="B188" sqref="B188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -38688,8 +38707,8 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="str" cm="1">
-        <f t="array" aca="1" ref="A5" ca="1">_xll.PRODUCT.NEW("my_product",A3,B3)</f>
-        <v>~ScriptProduct~my_product~000001F00EF47480</v>
+        <f t="array" aca="1" ref="A5" ca="1">_xll.PRODUCT.NEW("my_product",A31:A189,B31:B189)</f>
+        <v>~ScriptProduct~my_product~000002F2399736D0</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -38705,7 +38724,7 @@
       </c>
       <c r="C7" t="str" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">_xll.BSMODELDATA.NEW("model",D2,D3,D4,D5)</f>
-        <v>~BSModelData~model~000001F00F28DAF0</v>
+        <v>~BSModelData~model~000002F2269954B0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -38800,12 +38819,12 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
-        <f t="array" aca="1" ref="A24:B28" ca="1">_xll.MONTECARLO.VALUE(A5,C7,2^20,"sobol",FALSE,TRUE,0.01)</f>
+        <f t="array" aca="1" ref="A24:B28" ca="1">_xll.MONTECARLO.VALUE(A5,C7,2^20,"sobol",FALSE,TRUE,0.1)</f>
         <v>d_div</v>
       </c>
       <c r="B24" s="2">
         <f ca="1"/>
-        <v>-85.228968760590448</v>
+        <v>-45.307943019269025</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -38815,7 +38834,7 @@
       </c>
       <c r="B25">
         <f ca="1"/>
-        <v>73.10106084118145</v>
+        <v>41.948712910691313</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -38825,7 +38844,7 @@
       </c>
       <c r="B26">
         <f ca="1"/>
-        <v>0.28383735034320723</v>
+        <v>0.15088867885066817</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -38835,7 +38854,7 @@
       </c>
       <c r="B27" s="2">
         <f ca="1"/>
-        <v>58.71397201095639</v>
+        <v>22.83584680328406</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -38845,7 +38864,1284 @@
       </c>
       <c r="B28">
         <f ca="1"/>
-        <v>4.0389474366644285</v>
+        <v>1.1187217058675882</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>44829</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>44836</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <v>44843</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>44850</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <v>44857</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
+        <v>44864</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
+        <v>44871</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
+        <v>44878</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
+        <v>44885</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
+        <v>44892</v>
+      </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
+        <v>44899</v>
+      </c>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
+        <v>44906</v>
+      </c>
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
+        <v>44913</v>
+      </c>
+      <c r="B43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
+        <v>44920</v>
+      </c>
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
+        <v>44927</v>
+      </c>
+      <c r="B45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
+        <v>44934</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
+        <v>44941</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
+        <v>44948</v>
+      </c>
+      <c r="B48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
+        <v>44955</v>
+      </c>
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="5">
+        <v>44962</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
+        <v>44969</v>
+      </c>
+      <c r="B51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="5">
+        <v>44976</v>
+      </c>
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="5">
+        <v>44983</v>
+      </c>
+      <c r="B53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="5">
+        <v>44990</v>
+      </c>
+      <c r="B54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="5">
+        <v>44997</v>
+      </c>
+      <c r="B55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="5">
+        <v>45004</v>
+      </c>
+      <c r="B56" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="5">
+        <v>45011</v>
+      </c>
+      <c r="B57" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="5">
+        <v>45018</v>
+      </c>
+      <c r="B58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="5">
+        <v>45025</v>
+      </c>
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="5">
+        <v>45032</v>
+      </c>
+      <c r="B60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="5">
+        <v>45039</v>
+      </c>
+      <c r="B61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="5">
+        <v>45046</v>
+      </c>
+      <c r="B62" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="5">
+        <v>45053</v>
+      </c>
+      <c r="B63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="5">
+        <v>45060</v>
+      </c>
+      <c r="B64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="5">
+        <v>45067</v>
+      </c>
+      <c r="B65" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="5">
+        <v>45074</v>
+      </c>
+      <c r="B66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="5">
+        <v>45081</v>
+      </c>
+      <c r="B67" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="5">
+        <v>45088</v>
+      </c>
+      <c r="B68" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="5">
+        <v>45095</v>
+      </c>
+      <c r="B69" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="5">
+        <v>45102</v>
+      </c>
+      <c r="B70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="5">
+        <v>45109</v>
+      </c>
+      <c r="B71" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="5">
+        <v>45116</v>
+      </c>
+      <c r="B72" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="5">
+        <v>45123</v>
+      </c>
+      <c r="B73" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="5">
+        <v>45130</v>
+      </c>
+      <c r="B74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="5">
+        <v>45137</v>
+      </c>
+      <c r="B75" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="5">
+        <v>45144</v>
+      </c>
+      <c r="B76" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="5">
+        <v>45151</v>
+      </c>
+      <c r="B77" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="5">
+        <v>45158</v>
+      </c>
+      <c r="B78" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="5">
+        <v>45165</v>
+      </c>
+      <c r="B79" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="5">
+        <v>45172</v>
+      </c>
+      <c r="B80" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="5">
+        <v>45179</v>
+      </c>
+      <c r="B81" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="5">
+        <v>45186</v>
+      </c>
+      <c r="B82" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="5">
+        <v>45193</v>
+      </c>
+      <c r="B83" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="5">
+        <v>45200</v>
+      </c>
+      <c r="B84" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="5">
+        <v>45207</v>
+      </c>
+      <c r="B85" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="5">
+        <v>45214</v>
+      </c>
+      <c r="B86" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="5">
+        <v>45221</v>
+      </c>
+      <c r="B87" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="5">
+        <v>45228</v>
+      </c>
+      <c r="B88" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="5">
+        <v>45235</v>
+      </c>
+      <c r="B89" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="5">
+        <v>45242</v>
+      </c>
+      <c r="B90" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="5">
+        <v>45249</v>
+      </c>
+      <c r="B91" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="5">
+        <v>45256</v>
+      </c>
+      <c r="B92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="5">
+        <v>45263</v>
+      </c>
+      <c r="B93" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="5">
+        <v>45270</v>
+      </c>
+      <c r="B94" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="5">
+        <v>45277</v>
+      </c>
+      <c r="B95" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="5">
+        <v>45284</v>
+      </c>
+      <c r="B96" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="5">
+        <v>45291</v>
+      </c>
+      <c r="B97" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="5">
+        <v>45298</v>
+      </c>
+      <c r="B98" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="5">
+        <v>45305</v>
+      </c>
+      <c r="B99" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="5">
+        <v>45312</v>
+      </c>
+      <c r="B100" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="5">
+        <v>45319</v>
+      </c>
+      <c r="B101" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="5">
+        <v>45326</v>
+      </c>
+      <c r="B102" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="5">
+        <v>45333</v>
+      </c>
+      <c r="B103" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="5">
+        <v>45340</v>
+      </c>
+      <c r="B104" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="5">
+        <v>45347</v>
+      </c>
+      <c r="B105" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="5">
+        <v>45354</v>
+      </c>
+      <c r="B106" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="5">
+        <v>45361</v>
+      </c>
+      <c r="B107" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="5">
+        <v>45368</v>
+      </c>
+      <c r="B108" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="5">
+        <v>45375</v>
+      </c>
+      <c r="B109" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="5">
+        <v>45382</v>
+      </c>
+      <c r="B110" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="5">
+        <v>45389</v>
+      </c>
+      <c r="B111" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="5">
+        <v>45396</v>
+      </c>
+      <c r="B112" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="5">
+        <v>45403</v>
+      </c>
+      <c r="B113" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="5">
+        <v>45410</v>
+      </c>
+      <c r="B114" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="5">
+        <v>45417</v>
+      </c>
+      <c r="B115" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="5">
+        <v>45424</v>
+      </c>
+      <c r="B116" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="5">
+        <v>45431</v>
+      </c>
+      <c r="B117" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="5">
+        <v>45438</v>
+      </c>
+      <c r="B118" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="5">
+        <v>45445</v>
+      </c>
+      <c r="B119" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="5">
+        <v>45452</v>
+      </c>
+      <c r="B120" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="5">
+        <v>45459</v>
+      </c>
+      <c r="B121" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="5">
+        <v>45466</v>
+      </c>
+      <c r="B122" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="5">
+        <v>45473</v>
+      </c>
+      <c r="B123" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="5">
+        <v>45480</v>
+      </c>
+      <c r="B124" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="5">
+        <v>45487</v>
+      </c>
+      <c r="B125" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="5">
+        <v>45494</v>
+      </c>
+      <c r="B126" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="5">
+        <v>45501</v>
+      </c>
+      <c r="B127" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="5">
+        <v>45508</v>
+      </c>
+      <c r="B128" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="5">
+        <v>45515</v>
+      </c>
+      <c r="B129" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="5">
+        <v>45522</v>
+      </c>
+      <c r="B130" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="5">
+        <v>45529</v>
+      </c>
+      <c r="B131" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="5">
+        <v>45536</v>
+      </c>
+      <c r="B132" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="5">
+        <v>45543</v>
+      </c>
+      <c r="B133" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="5">
+        <v>45550</v>
+      </c>
+      <c r="B134" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="5">
+        <v>45557</v>
+      </c>
+      <c r="B135" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="5">
+        <v>45564</v>
+      </c>
+      <c r="B136" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="5">
+        <v>45571</v>
+      </c>
+      <c r="B137" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="5">
+        <v>45578</v>
+      </c>
+      <c r="B138" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="5">
+        <v>45585</v>
+      </c>
+      <c r="B139" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="5">
+        <v>45592</v>
+      </c>
+      <c r="B140" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="5">
+        <v>45599</v>
+      </c>
+      <c r="B141" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="5">
+        <v>45606</v>
+      </c>
+      <c r="B142" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="5">
+        <v>45613</v>
+      </c>
+      <c r="B143" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="5">
+        <v>45620</v>
+      </c>
+      <c r="B144" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="5">
+        <v>45627</v>
+      </c>
+      <c r="B145" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="5">
+        <v>45634</v>
+      </c>
+      <c r="B146" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="5">
+        <v>45641</v>
+      </c>
+      <c r="B147" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="5">
+        <v>45648</v>
+      </c>
+      <c r="B148" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="5">
+        <v>45655</v>
+      </c>
+      <c r="B149" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="5">
+        <v>45662</v>
+      </c>
+      <c r="B150" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="5">
+        <v>45669</v>
+      </c>
+      <c r="B151" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="5">
+        <v>45676</v>
+      </c>
+      <c r="B152" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="5">
+        <v>45683</v>
+      </c>
+      <c r="B153" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="5">
+        <v>45690</v>
+      </c>
+      <c r="B154" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="5">
+        <v>45697</v>
+      </c>
+      <c r="B155" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="5">
+        <v>45704</v>
+      </c>
+      <c r="B156" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="5">
+        <v>45711</v>
+      </c>
+      <c r="B157" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="5">
+        <v>45718</v>
+      </c>
+      <c r="B158" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="5">
+        <v>45725</v>
+      </c>
+      <c r="B159" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="5">
+        <v>45732</v>
+      </c>
+      <c r="B160" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="5">
+        <v>45739</v>
+      </c>
+      <c r="B161" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="5">
+        <v>45746</v>
+      </c>
+      <c r="B162" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="5">
+        <v>45753</v>
+      </c>
+      <c r="B163" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="5">
+        <v>45760</v>
+      </c>
+      <c r="B164" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="5">
+        <v>45767</v>
+      </c>
+      <c r="B165" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="5">
+        <v>45774</v>
+      </c>
+      <c r="B166" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="5">
+        <v>45781</v>
+      </c>
+      <c r="B167" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="5">
+        <v>45788</v>
+      </c>
+      <c r="B168" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="5">
+        <v>45795</v>
+      </c>
+      <c r="B169" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="5">
+        <v>45802</v>
+      </c>
+      <c r="B170" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="5">
+        <v>45809</v>
+      </c>
+      <c r="B171" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="5">
+        <v>45816</v>
+      </c>
+      <c r="B172" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="5">
+        <v>45823</v>
+      </c>
+      <c r="B173" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="5">
+        <v>45830</v>
+      </c>
+      <c r="B174" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="5">
+        <v>45837</v>
+      </c>
+      <c r="B175" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="5">
+        <v>45844</v>
+      </c>
+      <c r="B176" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="5">
+        <v>45851</v>
+      </c>
+      <c r="B177" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="5">
+        <v>45858</v>
+      </c>
+      <c r="B178" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="5">
+        <v>45865</v>
+      </c>
+      <c r="B179" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="5">
+        <v>45872</v>
+      </c>
+      <c r="B180" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="5">
+        <v>45879</v>
+      </c>
+      <c r="B181" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="5">
+        <v>45886</v>
+      </c>
+      <c r="B182" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="5">
+        <v>45893</v>
+      </c>
+      <c r="B183" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="5">
+        <v>45900</v>
+      </c>
+      <c r="B184" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="5">
+        <v>45907</v>
+      </c>
+      <c r="B185" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="5">
+        <v>45914</v>
+      </c>
+      <c r="B186" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="5">
+        <v>45921</v>
+      </c>
+      <c r="B187" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="5">
+        <v>45925</v>
+      </c>
+      <c r="B188" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="5">
+        <v>45925</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/excel/dal 101.xlsx
+++ b/excel/dal 101.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\github\dal\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECC63EF-41AF-4C07-BB7C-AB377D2AEF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEEA140-105D-48CA-86F2-8C0F485B96A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8760" yWindow="9165" windowWidth="25245" windowHeight="11835" activeTab="5" xr2:uid="{A658F64F-54DB-47F5-8888-F8582537DD58}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{A658F64F-54DB-47F5-8888-F8582537DD58}"/>
   </bookViews>
   <sheets>
     <sheet name="linear Interp" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -38707,8 +38707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F20376B-A517-4185-B924-84028E73DAC7}">
   <dimension ref="A1:D2869"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="B175" sqref="B175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/excel/dal 101.xlsx
+++ b/excel/dal 101.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\github\dal\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEEA140-105D-48CA-86F2-8C0F485B96A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F14C53E-C859-4EA7-9A59-CB8E2958547F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{A658F64F-54DB-47F5-8888-F8582537DD58}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <sheet name="script" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,13 +214,6 @@
   </si>
   <si>
     <t>Model Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if spot() &gt; 150:0.5 then alive = 0 endif</t>
-  </si>
-  <si>
-    <t>if spot() &gt; 150:0.5 then alive = 0 endif</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -38707,14 +38701,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F20376B-A517-4185-B924-84028E73DAC7}">
   <dimension ref="A1:D2869"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="B175" sqref="B175"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="106.75" style="6" customWidth="1"/>
-    <col min="2" max="3" width="58.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="77.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="58.75" style="6" customWidth="1"/>
     <col min="4" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -38769,12 +38764,12 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="A7" ca="1">_xll.PRODUCT.NEW("my_product",A17:A175,B17:B175)</f>
-        <v>~ScriptProduct~my_product~0000020D9C288B30</v>
+        <v>~ScriptProduct~my_product~000001AAEB7571A0</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">_xll.BSMODELDATA.NEW("model",D2,D3,D4,D5)</f>
-        <v>~BSModelData~model~0000020DAF3CA7C0</v>
+        <v>~BSModelData~model~000001AAEB4B86D0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -38784,12 +38779,12 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="str">
-        <f t="array" aca="1" ref="A10:B14" ca="1">_xll.MONTECARLO.VALUE(A7,C7,2^20,"sobol",FALSE,TRUE,0.5)</f>
+        <f t="array" aca="1" ref="A10:B14" ca="1">_xll.MONTECARLO.VALUE(A7,C7,2^20,"sobol",TRUE,TRUE,0.5)</f>
         <v>d_div</v>
       </c>
       <c r="B10" s="6">
         <f ca="1"/>
-        <v>-17.779426053339158</v>
+        <v>-38.578121182234568</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -38799,7 +38794,7 @@
       </c>
       <c r="B11" s="6">
         <f ca="1"/>
-        <v>14.19827819172758</v>
+        <v>32.26230026593197</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -38809,7 +38804,7 @@
       </c>
       <c r="B12" s="6">
         <f ca="1"/>
-        <v>4.5517884021410299E-2</v>
+        <v>2.0353439620836525E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -38819,7 +38814,7 @@
       </c>
       <c r="B13" s="6">
         <f ca="1"/>
-        <v>-3.8806224081319249</v>
+        <v>1.8758590020750741</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -38829,7 +38824,7 @@
       </c>
       <c r="B14" s="6">
         <f ca="1"/>
-        <v>1.1926267969783337</v>
+        <v>2.1033527686591649</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -38844,7 +38839,7 @@
         <v>Event: 1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>44829</v>
       </c>
@@ -38856,1891 +38851,2519 @@
         <v>Statement: 1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>44836</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>39</v>
+      <c r="B18" s="6" t="str">
+        <f ca="1">"if spot() &gt; "&amp;D18&amp;":0.5 then alive = 0 endif"</f>
+        <v>if spot() &gt; 110:0.5 then alive = 0 endif</v>
       </c>
       <c r="C18" s="6" t="str">
         <f ca="1"/>
         <v>ASSIGN(</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" s="6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>44843</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>38</v>
+      <c r="B19" s="6" t="str">
+        <f t="shared" ref="B19:B82" ca="1" si="0">"if spot() &gt; "&amp;D19&amp;":0.5 then alive = 0 endif"</f>
+        <v>if spot() &gt; 110.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C19" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> VAR[-1]</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" s="6">
+        <v>110.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>44850</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>38</v>
+      <c r="B20" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 111:0.5 then alive = 0 endif</v>
       </c>
       <c r="C20" s="6" t="str">
         <f ca="1"/>
         <v>,</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" s="6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>44857</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>38</v>
+      <c r="B21" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 111.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C21" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> CONST[1.000000]</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" s="6">
+        <v>111.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>44864</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>38</v>
+      <c r="B22" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 112:0.5 then alive = 0 endif</v>
       </c>
       <c r="C22" s="6" t="str">
         <f ca="1"/>
         <v>)</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" s="6">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>44871</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>38</v>
+      <c r="B23" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 112.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C23" s="6" t="str">
         <f ca="1"/>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" s="6">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>44878</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>38</v>
+      <c r="B24" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 113:0.5 then alive = 0 endif</v>
       </c>
       <c r="C24" s="6" t="str">
         <f ca="1"/>
         <v>Event: 2</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" s="6">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>44885</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>38</v>
+      <c r="B25" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 113.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C25" s="6" t="str">
         <f ca="1"/>
         <v>Statement: 1</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" s="6">
+        <v>113.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>44892</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>38</v>
+      <c r="B26" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 114:0.5 then alive = 0 endif</v>
       </c>
       <c r="C26" s="6" t="str">
         <f ca="1"/>
         <v>IF[FIRST ELSE = -1](</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" s="6">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>44899</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>38</v>
+      <c r="B27" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 114.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C27" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> GTZERO[CONT,EPS=0.500000](</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" s="6">
+        <v>114.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>44906</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>38</v>
+      <c r="B28" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 115:0.5 then alive = 0 endif</v>
       </c>
       <c r="C28" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  MINUS(</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" s="6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>44913</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>38</v>
+      <c r="B29" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 115.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C29" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">   SPOT</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" s="6">
+        <v>115.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>44920</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>38</v>
+      <c r="B30" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 116:0.5 then alive = 0 endif</v>
       </c>
       <c r="C30" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  ,</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" s="6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>44927</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>38</v>
+      <c r="B31" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 116.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C31" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">   CONST[110.000000]</v>
+      </c>
+      <c r="D31" s="6">
+        <v>116.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>44934</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>38</v>
+      <c r="B32" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 117:0.5 then alive = 0 endif</v>
       </c>
       <c r="C32" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  )</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" s="6">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>44941</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>38</v>
+      <c r="B33" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 117.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C33" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> )</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" s="6">
+        <v>117.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>44948</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>38</v>
+      <c r="B34" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 118:0.5 then alive = 0 endif</v>
       </c>
       <c r="C34" s="6" t="str">
         <f ca="1"/>
         <v>,</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" s="6">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>44955</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>38</v>
+      <c r="B35" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 118.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C35" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> ASSIGN(</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" s="6">
+        <v>118.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>44962</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>38</v>
+      <c r="B36" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 119:0.5 then alive = 0 endif</v>
       </c>
       <c r="C36" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  VAR[-1]</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" s="6">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>44969</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>38</v>
+      <c r="B37" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 119.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C37" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> ,</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37" s="6">
+        <v>119.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>44976</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>38</v>
+      <c r="B38" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 120:0.5 then alive = 0 endif</v>
       </c>
       <c r="C38" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  CONST[0.000000]</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38" s="6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>44983</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>38</v>
+      <c r="B39" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 120.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C39" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> )</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39" s="6">
+        <v>120.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>44990</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>38</v>
+      <c r="B40" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 121:0.5 then alive = 0 endif</v>
       </c>
       <c r="C40" s="6" t="str">
         <f ca="1"/>
         <v>)</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40" s="6">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>44997</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>38</v>
+      <c r="B41" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 121.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C41" s="6" t="str">
         <f ca="1"/>
         <v/>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41" s="6">
+        <v>121.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <v>45004</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>38</v>
+      <c r="B42" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 122:0.5 then alive = 0 endif</v>
       </c>
       <c r="C42" s="6" t="str">
         <f ca="1"/>
         <v>Event: 3</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42" s="6">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>45011</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>38</v>
+      <c r="B43" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 122.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C43" s="6" t="str">
         <f ca="1"/>
         <v>Statement: 1</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43" s="6">
+        <v>122.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
         <v>45018</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>38</v>
+      <c r="B44" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 123:0.5 then alive = 0 endif</v>
       </c>
       <c r="C44" s="6" t="str">
         <f ca="1"/>
         <v>IF[FIRST ELSE = -1](</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44" s="6">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>45025</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>38</v>
+      <c r="B45" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 123.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C45" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> GTZERO[CONT,EPS=0.500000](</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45" s="6">
+        <v>123.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>45032</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>38</v>
+      <c r="B46" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 124:0.5 then alive = 0 endif</v>
       </c>
       <c r="C46" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  MINUS(</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46" s="6">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>45039</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>38</v>
+      <c r="B47" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 124.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C47" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">   SPOT</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47" s="6">
+        <v>124.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <v>45046</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>38</v>
+      <c r="B48" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 125:0.5 then alive = 0 endif</v>
       </c>
       <c r="C48" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  ,</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48" s="6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>45053</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>38</v>
+      <c r="B49" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 125.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C49" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">   CONST[110.500000]</v>
+      </c>
+      <c r="D49" s="6">
+        <v>125.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>45060</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>38</v>
+      <c r="B50" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 126:0.5 then alive = 0 endif</v>
       </c>
       <c r="C50" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  )</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50" s="6">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
         <v>45067</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>38</v>
+      <c r="B51" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 126.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C51" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> )</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51" s="6">
+        <v>126.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
         <v>45074</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>38</v>
+      <c r="B52" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 127:0.5 then alive = 0 endif</v>
       </c>
       <c r="C52" s="6" t="str">
         <f ca="1"/>
         <v>,</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52" s="6">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
         <v>45081</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>38</v>
+      <c r="B53" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 127.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C53" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> ASSIGN(</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53" s="6">
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
         <v>45088</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>38</v>
+      <c r="B54" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 128:0.5 then alive = 0 endif</v>
       </c>
       <c r="C54" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  VAR[-1]</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54" s="6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="8">
         <v>45095</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>38</v>
+      <c r="B55" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 128.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C55" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> ,</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55" s="6">
+        <v>128.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="8">
         <v>45102</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>38</v>
+      <c r="B56" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 129:0.5 then alive = 0 endif</v>
       </c>
       <c r="C56" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  CONST[0.000000]</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56" s="6">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
         <v>45109</v>
       </c>
-      <c r="B57" s="6" t="s">
-        <v>38</v>
+      <c r="B57" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 129.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C57" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> )</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57" s="6">
+        <v>129.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
         <v>45116</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>38</v>
+      <c r="B58" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 130:0.5 then alive = 0 endif</v>
       </c>
       <c r="C58" s="6" t="str">
         <f ca="1"/>
         <v>)</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58" s="6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
         <v>45123</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>38</v>
+      <c r="B59" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 130.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C59" s="6" t="str">
         <f ca="1"/>
         <v/>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D59" s="6">
+        <v>130.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="8">
         <v>45130</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>38</v>
+      <c r="B60" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 131:0.5 then alive = 0 endif</v>
       </c>
       <c r="C60" s="6" t="str">
         <f ca="1"/>
         <v>Event: 4</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60" s="6">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
         <v>45137</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>38</v>
+      <c r="B61" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 131.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C61" s="6" t="str">
         <f ca="1"/>
         <v>Statement: 1</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61" s="6">
+        <v>131.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="8">
         <v>45144</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>38</v>
+      <c r="B62" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 132:0.5 then alive = 0 endif</v>
       </c>
       <c r="C62" s="6" t="str">
         <f ca="1"/>
         <v>IF[FIRST ELSE = -1](</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62" s="6">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="8">
         <v>45151</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>38</v>
+      <c r="B63" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 132.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C63" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> GTZERO[CONT,EPS=0.500000](</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D63" s="6">
+        <v>132.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="8">
         <v>45158</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>38</v>
+      <c r="B64" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 133:0.5 then alive = 0 endif</v>
       </c>
       <c r="C64" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  MINUS(</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D64" s="6">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="8">
         <v>45165</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>38</v>
+      <c r="B65" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 133.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C65" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">   SPOT</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D65" s="6">
+        <v>133.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="8">
         <v>45172</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>38</v>
+      <c r="B66" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 134:0.5 then alive = 0 endif</v>
       </c>
       <c r="C66" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  ,</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D66" s="6">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="8">
         <v>45179</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>38</v>
+      <c r="B67" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 134.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C67" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">   CONST[111.000000]</v>
+      </c>
+      <c r="D67" s="6">
+        <v>134.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="8">
         <v>45186</v>
       </c>
-      <c r="B68" s="6" t="s">
-        <v>38</v>
+      <c r="B68" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 135:0.5 then alive = 0 endif</v>
       </c>
       <c r="C68" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  )</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D68" s="6">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
         <v>45193</v>
       </c>
-      <c r="B69" s="6" t="s">
-        <v>38</v>
+      <c r="B69" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 135.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C69" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> )</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D69" s="6">
+        <v>135.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="8">
         <v>45200</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>38</v>
+      <c r="B70" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 136:0.5 then alive = 0 endif</v>
       </c>
       <c r="C70" s="6" t="str">
         <f ca="1"/>
         <v>,</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D70" s="6">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="8">
         <v>45207</v>
       </c>
-      <c r="B71" s="6" t="s">
-        <v>38</v>
+      <c r="B71" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 136.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C71" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> ASSIGN(</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D71" s="6">
+        <v>136.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="8">
         <v>45214</v>
       </c>
-      <c r="B72" s="6" t="s">
-        <v>38</v>
+      <c r="B72" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 137:0.5 then alive = 0 endif</v>
       </c>
       <c r="C72" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  VAR[-1]</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D72" s="6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="8">
         <v>45221</v>
       </c>
-      <c r="B73" s="6" t="s">
-        <v>38</v>
+      <c r="B73" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 137.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C73" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> ,</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D73" s="6">
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="8">
         <v>45228</v>
       </c>
-      <c r="B74" s="6" t="s">
-        <v>38</v>
+      <c r="B74" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 138:0.5 then alive = 0 endif</v>
       </c>
       <c r="C74" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  CONST[0.000000]</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D74" s="6">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="8">
         <v>45235</v>
       </c>
-      <c r="B75" s="6" t="s">
-        <v>38</v>
+      <c r="B75" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 138.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C75" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> )</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D75" s="6">
+        <v>138.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="8">
         <v>45242</v>
       </c>
-      <c r="B76" s="6" t="s">
-        <v>38</v>
+      <c r="B76" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 139:0.5 then alive = 0 endif</v>
       </c>
       <c r="C76" s="6" t="str">
         <f ca="1"/>
         <v>)</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D76" s="6">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="8">
         <v>45249</v>
       </c>
-      <c r="B77" s="6" t="s">
-        <v>38</v>
+      <c r="B77" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 139.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C77" s="6" t="str">
         <f ca="1"/>
         <v/>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D77" s="6">
+        <v>139.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="8">
         <v>45256</v>
       </c>
-      <c r="B78" s="6" t="s">
-        <v>38</v>
+      <c r="B78" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 140:0.5 then alive = 0 endif</v>
       </c>
       <c r="C78" s="6" t="str">
         <f ca="1"/>
         <v>Event: 5</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D78" s="6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="8">
         <v>45263</v>
       </c>
-      <c r="B79" s="6" t="s">
-        <v>38</v>
+      <c r="B79" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 140.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C79" s="6" t="str">
         <f ca="1"/>
         <v>Statement: 1</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D79" s="6">
+        <v>140.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="8">
         <v>45270</v>
       </c>
-      <c r="B80" s="6" t="s">
-        <v>38</v>
+      <c r="B80" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 141:0.5 then alive = 0 endif</v>
       </c>
       <c r="C80" s="6" t="str">
         <f ca="1"/>
         <v>IF[FIRST ELSE = -1](</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D80" s="6">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="8">
         <v>45277</v>
       </c>
-      <c r="B81" s="6" t="s">
-        <v>38</v>
+      <c r="B81" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 141.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C81" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> GTZERO[CONT,EPS=0.500000](</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D81" s="6">
+        <v>141.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="8">
         <v>45284</v>
       </c>
-      <c r="B82" s="6" t="s">
-        <v>38</v>
+      <c r="B82" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>if spot() &gt; 142:0.5 then alive = 0 endif</v>
       </c>
       <c r="C82" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  MINUS(</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D82" s="6">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="8">
         <v>45291</v>
       </c>
-      <c r="B83" s="6" t="s">
-        <v>38</v>
+      <c r="B83" s="6" t="str">
+        <f t="shared" ref="B83:B146" ca="1" si="1">"if spot() &gt; "&amp;D83&amp;":0.5 then alive = 0 endif"</f>
+        <v>if spot() &gt; 142.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C83" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">   SPOT</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D83" s="6">
+        <v>142.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="8">
         <v>45298</v>
       </c>
-      <c r="B84" s="6" t="s">
-        <v>38</v>
+      <c r="B84" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 143:0.5 then alive = 0 endif</v>
       </c>
       <c r="C84" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  ,</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D84" s="6">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="8">
         <v>45305</v>
       </c>
-      <c r="B85" s="6" t="s">
-        <v>38</v>
+      <c r="B85" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 143.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C85" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">   CONST[111.500000]</v>
+      </c>
+      <c r="D85" s="6">
+        <v>143.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="8">
         <v>45312</v>
       </c>
-      <c r="B86" s="6" t="s">
-        <v>38</v>
+      <c r="B86" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 144:0.5 then alive = 0 endif</v>
       </c>
       <c r="C86" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  )</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D86" s="6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="8">
         <v>45319</v>
       </c>
-      <c r="B87" s="6" t="s">
-        <v>38</v>
+      <c r="B87" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 144.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C87" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> )</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D87" s="6">
+        <v>144.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="8">
         <v>45326</v>
       </c>
-      <c r="B88" s="6" t="s">
-        <v>38</v>
+      <c r="B88" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 145:0.5 then alive = 0 endif</v>
       </c>
       <c r="C88" s="6" t="str">
         <f ca="1"/>
         <v>,</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D88" s="6">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="8">
         <v>45333</v>
       </c>
-      <c r="B89" s="6" t="s">
-        <v>38</v>
+      <c r="B89" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 145.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C89" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> ASSIGN(</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D89" s="6">
+        <v>145.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="8">
         <v>45340</v>
       </c>
-      <c r="B90" s="6" t="s">
-        <v>38</v>
+      <c r="B90" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 146:0.5 then alive = 0 endif</v>
       </c>
       <c r="C90" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  VAR[-1]</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D90" s="6">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="8">
         <v>45347</v>
       </c>
-      <c r="B91" s="6" t="s">
-        <v>38</v>
+      <c r="B91" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 146.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C91" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> ,</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D91" s="6">
+        <v>146.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="8">
         <v>45354</v>
       </c>
-      <c r="B92" s="6" t="s">
-        <v>38</v>
+      <c r="B92" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 147:0.5 then alive = 0 endif</v>
       </c>
       <c r="C92" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  CONST[0.000000]</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D92" s="6">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="8">
         <v>45361</v>
       </c>
-      <c r="B93" s="6" t="s">
-        <v>38</v>
+      <c r="B93" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 147.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C93" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> )</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D93" s="6">
+        <v>147.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="8">
         <v>45368</v>
       </c>
-      <c r="B94" s="6" t="s">
-        <v>38</v>
+      <c r="B94" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 148:0.5 then alive = 0 endif</v>
       </c>
       <c r="C94" s="6" t="str">
         <f ca="1"/>
         <v>)</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D94" s="6">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="8">
         <v>45375</v>
       </c>
-      <c r="B95" s="6" t="s">
-        <v>38</v>
+      <c r="B95" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 148.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C95" s="6" t="str">
         <f ca="1"/>
         <v/>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D95" s="6">
+        <v>148.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="8">
         <v>45382</v>
       </c>
-      <c r="B96" s="6" t="s">
-        <v>38</v>
+      <c r="B96" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 149:0.5 then alive = 0 endif</v>
       </c>
       <c r="C96" s="6" t="str">
         <f ca="1"/>
         <v>Event: 6</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D96" s="6">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="8">
         <v>45389</v>
       </c>
-      <c r="B97" s="6" t="s">
-        <v>38</v>
+      <c r="B97" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 149.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C97" s="6" t="str">
         <f ca="1"/>
         <v>Statement: 1</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D97" s="6">
+        <v>149.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="8">
         <v>45396</v>
       </c>
-      <c r="B98" s="6" t="s">
-        <v>38</v>
+      <c r="B98" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 150:0.5 then alive = 0 endif</v>
       </c>
       <c r="C98" s="6" t="str">
         <f ca="1"/>
         <v>IF[FIRST ELSE = -1](</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D98" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="8">
         <v>45403</v>
       </c>
-      <c r="B99" s="6" t="s">
-        <v>38</v>
+      <c r="B99" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 150.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C99" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> GTZERO[CONT,EPS=0.500000](</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D99" s="6">
+        <v>150.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="8">
         <v>45410</v>
       </c>
-      <c r="B100" s="6" t="s">
-        <v>38</v>
+      <c r="B100" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 151:0.5 then alive = 0 endif</v>
       </c>
       <c r="C100" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  MINUS(</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D100" s="6">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
         <v>45417</v>
       </c>
-      <c r="B101" s="6" t="s">
-        <v>38</v>
+      <c r="B101" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 151.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C101" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">   SPOT</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D101" s="6">
+        <v>151.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="8">
         <v>45424</v>
       </c>
-      <c r="B102" s="6" t="s">
-        <v>38</v>
+      <c r="B102" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 152:0.5 then alive = 0 endif</v>
       </c>
       <c r="C102" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  ,</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D102" s="6">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="8">
         <v>45431</v>
       </c>
-      <c r="B103" s="6" t="s">
-        <v>38</v>
+      <c r="B103" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 152.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C103" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">   CONST[112.000000]</v>
+      </c>
+      <c r="D103" s="6">
+        <v>152.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="8">
         <v>45438</v>
       </c>
-      <c r="B104" s="6" t="s">
-        <v>38</v>
+      <c r="B104" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 153:0.5 then alive = 0 endif</v>
       </c>
       <c r="C104" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  )</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D104" s="6">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="8">
         <v>45445</v>
       </c>
-      <c r="B105" s="6" t="s">
-        <v>38</v>
+      <c r="B105" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 153.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C105" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> )</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D105" s="6">
+        <v>153.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="8">
         <v>45452</v>
       </c>
-      <c r="B106" s="6" t="s">
-        <v>38</v>
+      <c r="B106" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 154:0.5 then alive = 0 endif</v>
       </c>
       <c r="C106" s="6" t="str">
         <f ca="1"/>
         <v>,</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D106" s="6">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="8">
         <v>45459</v>
       </c>
-      <c r="B107" s="6" t="s">
-        <v>38</v>
+      <c r="B107" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 154.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C107" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> ASSIGN(</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D107" s="6">
+        <v>154.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="8">
         <v>45466</v>
       </c>
-      <c r="B108" s="6" t="s">
-        <v>38</v>
+      <c r="B108" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 155:0.5 then alive = 0 endif</v>
       </c>
       <c r="C108" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  VAR[-1]</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D108" s="6">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="8">
         <v>45473</v>
       </c>
-      <c r="B109" s="6" t="s">
-        <v>38</v>
+      <c r="B109" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 155.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C109" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> ,</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D109" s="6">
+        <v>155.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="8">
         <v>45480</v>
       </c>
-      <c r="B110" s="6" t="s">
-        <v>38</v>
+      <c r="B110" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 156:0.5 then alive = 0 endif</v>
       </c>
       <c r="C110" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  CONST[0.000000]</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D110" s="6">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="8">
         <v>45487</v>
       </c>
-      <c r="B111" s="6" t="s">
-        <v>38</v>
+      <c r="B111" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 156.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C111" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> )</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D111" s="6">
+        <v>156.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="8">
         <v>45494</v>
       </c>
-      <c r="B112" s="6" t="s">
-        <v>38</v>
+      <c r="B112" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 157:0.5 then alive = 0 endif</v>
       </c>
       <c r="C112" s="6" t="str">
         <f ca="1"/>
         <v>)</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D112" s="6">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="8">
         <v>45501</v>
       </c>
-      <c r="B113" s="6" t="s">
-        <v>38</v>
+      <c r="B113" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 157.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C113" s="6" t="str">
         <f ca="1"/>
         <v/>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D113" s="6">
+        <v>157.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="8">
         <v>45508</v>
       </c>
-      <c r="B114" s="6" t="s">
-        <v>38</v>
+      <c r="B114" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 158:0.5 then alive = 0 endif</v>
       </c>
       <c r="C114" s="6" t="str">
         <f ca="1"/>
         <v>Event: 7</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D114" s="6">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="8">
         <v>45515</v>
       </c>
-      <c r="B115" s="6" t="s">
-        <v>38</v>
+      <c r="B115" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 158.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C115" s="6" t="str">
         <f ca="1"/>
         <v>Statement: 1</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D115" s="6">
+        <v>158.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="8">
         <v>45522</v>
       </c>
-      <c r="B116" s="6" t="s">
-        <v>38</v>
+      <c r="B116" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 159:0.5 then alive = 0 endif</v>
       </c>
       <c r="C116" s="6" t="str">
         <f ca="1"/>
         <v>IF[FIRST ELSE = -1](</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D116" s="6">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="8">
         <v>45529</v>
       </c>
-      <c r="B117" s="6" t="s">
-        <v>38</v>
+      <c r="B117" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 159.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C117" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> GTZERO[CONT,EPS=0.500000](</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D117" s="6">
+        <v>159.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="8">
         <v>45536</v>
       </c>
-      <c r="B118" s="6" t="s">
-        <v>38</v>
+      <c r="B118" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 160:0.5 then alive = 0 endif</v>
       </c>
       <c r="C118" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  MINUS(</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D118" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="8">
         <v>45543</v>
       </c>
-      <c r="B119" s="6" t="s">
-        <v>38</v>
+      <c r="B119" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 160.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C119" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">   SPOT</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D119" s="6">
+        <v>160.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="8">
         <v>45550</v>
       </c>
-      <c r="B120" s="6" t="s">
-        <v>38</v>
+      <c r="B120" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 161:0.5 then alive = 0 endif</v>
       </c>
       <c r="C120" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  ,</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D120" s="6">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="8">
         <v>45557</v>
       </c>
-      <c r="B121" s="6" t="s">
-        <v>38</v>
+      <c r="B121" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 161.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C121" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">   CONST[112.500000]</v>
+      </c>
+      <c r="D121" s="6">
+        <v>161.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="8">
         <v>45564</v>
       </c>
-      <c r="B122" s="6" t="s">
-        <v>38</v>
+      <c r="B122" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 162:0.5 then alive = 0 endif</v>
       </c>
       <c r="C122" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  )</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D122" s="6">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="8">
         <v>45571</v>
       </c>
-      <c r="B123" s="6" t="s">
-        <v>38</v>
+      <c r="B123" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 162.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C123" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> )</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D123" s="6">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="8">
         <v>45578</v>
       </c>
-      <c r="B124" s="6" t="s">
-        <v>38</v>
+      <c r="B124" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 163:0.5 then alive = 0 endif</v>
       </c>
       <c r="C124" s="6" t="str">
         <f ca="1"/>
         <v>,</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D124" s="6">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="8">
         <v>45585</v>
       </c>
-      <c r="B125" s="6" t="s">
-        <v>38</v>
+      <c r="B125" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 163.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C125" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> ASSIGN(</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D125" s="6">
+        <v>163.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="8">
         <v>45592</v>
       </c>
-      <c r="B126" s="6" t="s">
-        <v>38</v>
+      <c r="B126" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 164:0.5 then alive = 0 endif</v>
       </c>
       <c r="C126" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  VAR[-1]</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D126" s="6">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="8">
         <v>45599</v>
       </c>
-      <c r="B127" s="6" t="s">
-        <v>38</v>
+      <c r="B127" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 164.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C127" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> ,</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D127" s="6">
+        <v>164.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="8">
         <v>45606</v>
       </c>
-      <c r="B128" s="6" t="s">
-        <v>38</v>
+      <c r="B128" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 165:0.5 then alive = 0 endif</v>
       </c>
       <c r="C128" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  CONST[0.000000]</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D128" s="6">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="8">
         <v>45613</v>
       </c>
-      <c r="B129" s="6" t="s">
-        <v>38</v>
+      <c r="B129" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 165.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C129" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> )</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D129" s="6">
+        <v>165.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="8">
         <v>45620</v>
       </c>
-      <c r="B130" s="6" t="s">
-        <v>38</v>
+      <c r="B130" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 166:0.5 then alive = 0 endif</v>
       </c>
       <c r="C130" s="6" t="str">
         <f ca="1"/>
         <v>)</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D130" s="6">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="8">
         <v>45627</v>
       </c>
-      <c r="B131" s="6" t="s">
-        <v>38</v>
+      <c r="B131" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 166.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C131" s="6" t="str">
         <f ca="1"/>
         <v/>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D131" s="6">
+        <v>166.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="8">
         <v>45634</v>
       </c>
-      <c r="B132" s="6" t="s">
-        <v>38</v>
+      <c r="B132" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 167:0.5 then alive = 0 endif</v>
       </c>
       <c r="C132" s="6" t="str">
         <f ca="1"/>
         <v>Event: 8</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D132" s="6">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="8">
         <v>45641</v>
       </c>
-      <c r="B133" s="6" t="s">
-        <v>38</v>
+      <c r="B133" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 167.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C133" s="6" t="str">
         <f ca="1"/>
         <v>Statement: 1</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D133" s="6">
+        <v>167.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="8">
         <v>45648</v>
       </c>
-      <c r="B134" s="6" t="s">
-        <v>38</v>
+      <c r="B134" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 168:0.5 then alive = 0 endif</v>
       </c>
       <c r="C134" s="6" t="str">
         <f ca="1"/>
         <v>IF[FIRST ELSE = -1](</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D134" s="6">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="8">
         <v>45655</v>
       </c>
-      <c r="B135" s="6" t="s">
-        <v>38</v>
+      <c r="B135" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 168.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C135" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> GTZERO[CONT,EPS=0.500000](</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D135" s="6">
+        <v>168.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="8">
         <v>45662</v>
       </c>
-      <c r="B136" s="6" t="s">
-        <v>38</v>
+      <c r="B136" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 169:0.5 then alive = 0 endif</v>
       </c>
       <c r="C136" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  MINUS(</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D136" s="6">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="8">
         <v>45669</v>
       </c>
-      <c r="B137" s="6" t="s">
-        <v>38</v>
+      <c r="B137" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 169.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C137" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">   SPOT</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D137" s="6">
+        <v>169.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="8">
         <v>45676</v>
       </c>
-      <c r="B138" s="6" t="s">
-        <v>38</v>
+      <c r="B138" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 170:0.5 then alive = 0 endif</v>
       </c>
       <c r="C138" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  ,</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D138" s="6">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="8">
         <v>45683</v>
       </c>
-      <c r="B139" s="6" t="s">
-        <v>38</v>
+      <c r="B139" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 170.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C139" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">   CONST[113.000000]</v>
+      </c>
+      <c r="D139" s="6">
+        <v>170.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="8">
         <v>45690</v>
       </c>
-      <c r="B140" s="6" t="s">
-        <v>38</v>
+      <c r="B140" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 171:0.5 then alive = 0 endif</v>
       </c>
       <c r="C140" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  )</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D140" s="6">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="8">
         <v>45697</v>
       </c>
-      <c r="B141" s="6" t="s">
-        <v>38</v>
+      <c r="B141" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 171.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C141" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> )</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D141" s="6">
+        <v>171.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="8">
         <v>45704</v>
       </c>
-      <c r="B142" s="6" t="s">
-        <v>38</v>
+      <c r="B142" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 172:0.5 then alive = 0 endif</v>
       </c>
       <c r="C142" s="6" t="str">
         <f ca="1"/>
         <v>,</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D142" s="6">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="8">
         <v>45711</v>
       </c>
-      <c r="B143" s="6" t="s">
-        <v>38</v>
+      <c r="B143" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 172.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C143" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> ASSIGN(</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D143" s="6">
+        <v>172.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="8">
         <v>45718</v>
       </c>
-      <c r="B144" s="6" t="s">
-        <v>38</v>
+      <c r="B144" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 173:0.5 then alive = 0 endif</v>
       </c>
       <c r="C144" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  VAR[-1]</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D144" s="6">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="8">
         <v>45725</v>
       </c>
-      <c r="B145" s="6" t="s">
-        <v>38</v>
+      <c r="B145" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 173.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C145" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> ,</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D145" s="6">
+        <v>173.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="8">
         <v>45732</v>
       </c>
-      <c r="B146" s="6" t="s">
-        <v>38</v>
+      <c r="B146" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>if spot() &gt; 174:0.5 then alive = 0 endif</v>
       </c>
       <c r="C146" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  CONST[0.000000]</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D146" s="6">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="8">
         <v>45739</v>
       </c>
-      <c r="B147" s="6" t="s">
-        <v>38</v>
+      <c r="B147" s="6" t="str">
+        <f t="shared" ref="B147:B174" ca="1" si="2">"if spot() &gt; "&amp;D147&amp;":0.5 then alive = 0 endif"</f>
+        <v>if spot() &gt; 174.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C147" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> )</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D147" s="6">
+        <v>174.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="8">
         <v>45746</v>
       </c>
-      <c r="B148" s="6" t="s">
-        <v>38</v>
+      <c r="B148" s="6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>if spot() &gt; 175:0.5 then alive = 0 endif</v>
       </c>
       <c r="C148" s="6" t="str">
         <f ca="1"/>
         <v>)</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D148" s="6">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="8">
         <v>45753</v>
       </c>
-      <c r="B149" s="6" t="s">
-        <v>38</v>
+      <c r="B149" s="6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>if spot() &gt; 175.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C149" s="6" t="str">
         <f ca="1"/>
         <v/>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D149" s="6">
+        <v>175.5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="8">
         <v>45760</v>
       </c>
-      <c r="B150" s="6" t="s">
-        <v>38</v>
+      <c r="B150" s="6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>if spot() &gt; 176:0.5 then alive = 0 endif</v>
       </c>
       <c r="C150" s="6" t="str">
         <f ca="1"/>
         <v>Event: 9</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D150" s="6">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="8">
         <v>45767</v>
       </c>
-      <c r="B151" s="6" t="s">
-        <v>38</v>
+      <c r="B151" s="6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>if spot() &gt; 176.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C151" s="6" t="str">
         <f ca="1"/>
         <v>Statement: 1</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D151" s="6">
+        <v>176.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="8">
         <v>45774</v>
       </c>
-      <c r="B152" s="6" t="s">
-        <v>38</v>
+      <c r="B152" s="6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>if spot() &gt; 177:0.5 then alive = 0 endif</v>
       </c>
       <c r="C152" s="6" t="str">
         <f ca="1"/>
         <v>IF[FIRST ELSE = -1](</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D152" s="6">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="8">
         <v>45781</v>
       </c>
-      <c r="B153" s="6" t="s">
-        <v>38</v>
+      <c r="B153" s="6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>if spot() &gt; 177.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C153" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> GTZERO[CONT,EPS=0.500000](</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D153" s="6">
+        <v>177.5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="8">
         <v>45788</v>
       </c>
-      <c r="B154" s="6" t="s">
-        <v>38</v>
+      <c r="B154" s="6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>if spot() &gt; 178:0.5 then alive = 0 endif</v>
       </c>
       <c r="C154" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  MINUS(</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D154" s="6">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="8">
         <v>45795</v>
       </c>
-      <c r="B155" s="6" t="s">
-        <v>38</v>
+      <c r="B155" s="6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>if spot() &gt; 178.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C155" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">   SPOT</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D155" s="6">
+        <v>178.5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="8">
         <v>45802</v>
       </c>
-      <c r="B156" s="6" t="s">
-        <v>38</v>
+      <c r="B156" s="6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>if spot() &gt; 179:0.5 then alive = 0 endif</v>
       </c>
       <c r="C156" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  ,</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D156" s="6">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="8">
         <v>45809</v>
       </c>
-      <c r="B157" s="6" t="s">
-        <v>38</v>
+      <c r="B157" s="6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>if spot() &gt; 179.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C157" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">   CONST[113.500000]</v>
+      </c>
+      <c r="D157" s="6">
+        <v>179.5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="8">
         <v>45816</v>
       </c>
-      <c r="B158" s="6" t="s">
-        <v>38</v>
+      <c r="B158" s="6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>if spot() &gt; 180:0.5 then alive = 0 endif</v>
       </c>
       <c r="C158" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  )</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D158" s="6">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="8">
         <v>45823</v>
       </c>
-      <c r="B159" s="6" t="s">
-        <v>38</v>
+      <c r="B159" s="6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>if spot() &gt; 180.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C159" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> )</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D159" s="6">
+        <v>180.5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="8">
         <v>45830</v>
       </c>
-      <c r="B160" s="6" t="s">
-        <v>38</v>
+      <c r="B160" s="6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>if spot() &gt; 181:0.5 then alive = 0 endif</v>
       </c>
       <c r="C160" s="6" t="str">
         <f ca="1"/>
         <v>,</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D160" s="6">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="8">
         <v>45837</v>
       </c>
-      <c r="B161" s="6" t="s">
-        <v>38</v>
+      <c r="B161" s="6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>if spot() &gt; 181.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C161" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> ASSIGN(</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D161" s="6">
+        <v>181.5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="8">
         <v>45844</v>
       </c>
-      <c r="B162" s="6" t="s">
-        <v>38</v>
+      <c r="B162" s="6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>if spot() &gt; 182:0.5 then alive = 0 endif</v>
       </c>
       <c r="C162" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  VAR[-1]</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D162" s="6">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="8">
         <v>45851</v>
       </c>
-      <c r="B163" s="6" t="s">
-        <v>38</v>
+      <c r="B163" s="6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>if spot() &gt; 182.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C163" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> ,</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D163" s="6">
+        <v>182.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="8">
         <v>45858</v>
       </c>
-      <c r="B164" s="6" t="s">
-        <v>38</v>
+      <c r="B164" s="6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>if spot() &gt; 183:0.5 then alive = 0 endif</v>
       </c>
       <c r="C164" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  CONST[0.000000]</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D164" s="6">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="8">
         <v>45865</v>
       </c>
-      <c r="B165" s="6" t="s">
-        <v>38</v>
+      <c r="B165" s="6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>if spot() &gt; 183.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C165" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> )</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D165" s="6">
+        <v>183.5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="8">
         <v>45872</v>
       </c>
-      <c r="B166" s="6" t="s">
-        <v>38</v>
+      <c r="B166" s="6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>if spot() &gt; 184:0.5 then alive = 0 endif</v>
       </c>
       <c r="C166" s="6" t="str">
         <f ca="1"/>
         <v>)</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D166" s="6">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="8">
         <v>45879</v>
       </c>
-      <c r="B167" s="6" t="s">
-        <v>38</v>
+      <c r="B167" s="6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>if spot() &gt; 184.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C167" s="6" t="str">
         <f ca="1"/>
         <v/>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D167" s="6">
+        <v>184.5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="8">
         <v>45886</v>
       </c>
-      <c r="B168" s="6" t="s">
-        <v>38</v>
+      <c r="B168" s="6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>if spot() &gt; 185:0.5 then alive = 0 endif</v>
       </c>
       <c r="C168" s="6" t="str">
         <f ca="1"/>
         <v>Event: 10</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D168" s="6">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="8">
         <v>45893</v>
       </c>
-      <c r="B169" s="6" t="s">
-        <v>38</v>
+      <c r="B169" s="6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>if spot() &gt; 185.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C169" s="6" t="str">
         <f ca="1"/>
         <v>Statement: 1</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D169" s="6">
+        <v>185.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="8">
         <v>45900</v>
       </c>
-      <c r="B170" s="6" t="s">
-        <v>38</v>
+      <c r="B170" s="6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>if spot() &gt; 186:0.5 then alive = 0 endif</v>
       </c>
       <c r="C170" s="6" t="str">
         <f ca="1"/>
         <v>IF[FIRST ELSE = -1](</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D170" s="6">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="8">
         <v>45907</v>
       </c>
-      <c r="B171" s="6" t="s">
-        <v>38</v>
+      <c r="B171" s="6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>if spot() &gt; 186.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C171" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> GTZERO[CONT,EPS=0.500000](</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D171" s="6">
+        <v>186.5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="8">
         <v>45914</v>
       </c>
-      <c r="B172" s="6" t="s">
-        <v>38</v>
+      <c r="B172" s="6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>if spot() &gt; 187:0.5 then alive = 0 endif</v>
       </c>
       <c r="C172" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  MINUS(</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D172" s="6">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="8">
         <v>45921</v>
       </c>
-      <c r="B173" s="6" t="s">
-        <v>38</v>
+      <c r="B173" s="6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>if spot() &gt; 187.5:0.5 then alive = 0 endif</v>
       </c>
       <c r="C173" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">   SPOT</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D173" s="6">
+        <v>187.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="8">
         <v>45925</v>
       </c>
-      <c r="B174" s="6" t="s">
-        <v>38</v>
+      <c r="B174" s="6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>if spot() &gt; 188:0.5 then alive = 0 endif</v>
       </c>
       <c r="C174" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  ,</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D174" s="6">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="8">
         <v>45925</v>
       </c>
@@ -40749,10 +41372,10 @@
       </c>
       <c r="C175" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">   CONST[114.000000]</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C176" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">  )</v>
@@ -40857,7 +41480,7 @@
     <row r="193" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C193" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[114.500000]</v>
       </c>
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.2">
@@ -40965,7 +41588,7 @@
     <row r="211" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C211" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[115.000000]</v>
       </c>
     </row>
     <row r="212" spans="3:3" x14ac:dyDescent="0.2">
@@ -41073,7 +41696,7 @@
     <row r="229" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C229" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[115.500000]</v>
       </c>
     </row>
     <row r="230" spans="3:3" x14ac:dyDescent="0.2">
@@ -41181,7 +41804,7 @@
     <row r="247" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C247" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[116.000000]</v>
       </c>
     </row>
     <row r="248" spans="3:3" x14ac:dyDescent="0.2">
@@ -41289,7 +41912,7 @@
     <row r="265" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C265" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[116.500000]</v>
       </c>
     </row>
     <row r="266" spans="3:3" x14ac:dyDescent="0.2">
@@ -41397,7 +42020,7 @@
     <row r="283" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C283" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[117.000000]</v>
       </c>
     </row>
     <row r="284" spans="3:3" x14ac:dyDescent="0.2">
@@ -41505,7 +42128,7 @@
     <row r="301" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C301" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[117.500000]</v>
       </c>
     </row>
     <row r="302" spans="3:3" x14ac:dyDescent="0.2">
@@ -41613,7 +42236,7 @@
     <row r="319" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C319" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[118.000000]</v>
       </c>
     </row>
     <row r="320" spans="3:3" x14ac:dyDescent="0.2">
@@ -41721,7 +42344,7 @@
     <row r="337" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C337" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[118.500000]</v>
       </c>
     </row>
     <row r="338" spans="3:3" x14ac:dyDescent="0.2">
@@ -41829,7 +42452,7 @@
     <row r="355" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C355" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[119.000000]</v>
       </c>
     </row>
     <row r="356" spans="3:3" x14ac:dyDescent="0.2">
@@ -41937,7 +42560,7 @@
     <row r="373" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C373" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[119.500000]</v>
       </c>
     </row>
     <row r="374" spans="3:3" x14ac:dyDescent="0.2">
@@ -42045,7 +42668,7 @@
     <row r="391" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C391" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[120.000000]</v>
       </c>
     </row>
     <row r="392" spans="3:3" x14ac:dyDescent="0.2">
@@ -42153,7 +42776,7 @@
     <row r="409" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C409" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[120.500000]</v>
       </c>
     </row>
     <row r="410" spans="3:3" x14ac:dyDescent="0.2">
@@ -42261,7 +42884,7 @@
     <row r="427" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C427" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[121.000000]</v>
       </c>
     </row>
     <row r="428" spans="3:3" x14ac:dyDescent="0.2">
@@ -42369,7 +42992,7 @@
     <row r="445" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C445" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[121.500000]</v>
       </c>
     </row>
     <row r="446" spans="3:3" x14ac:dyDescent="0.2">
@@ -42477,7 +43100,7 @@
     <row r="463" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C463" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[122.000000]</v>
       </c>
     </row>
     <row r="464" spans="3:3" x14ac:dyDescent="0.2">
@@ -42585,7 +43208,7 @@
     <row r="481" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C481" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[122.500000]</v>
       </c>
     </row>
     <row r="482" spans="3:3" x14ac:dyDescent="0.2">
@@ -42693,7 +43316,7 @@
     <row r="499" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C499" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[123.000000]</v>
       </c>
     </row>
     <row r="500" spans="3:3" x14ac:dyDescent="0.2">
@@ -42801,7 +43424,7 @@
     <row r="517" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C517" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[123.500000]</v>
       </c>
     </row>
     <row r="518" spans="3:3" x14ac:dyDescent="0.2">
@@ -42909,7 +43532,7 @@
     <row r="535" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C535" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[124.000000]</v>
       </c>
     </row>
     <row r="536" spans="3:3" x14ac:dyDescent="0.2">
@@ -43017,7 +43640,7 @@
     <row r="553" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C553" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[124.500000]</v>
       </c>
     </row>
     <row r="554" spans="3:3" x14ac:dyDescent="0.2">
@@ -43125,7 +43748,7 @@
     <row r="571" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C571" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[125.000000]</v>
       </c>
     </row>
     <row r="572" spans="3:3" x14ac:dyDescent="0.2">
@@ -43233,7 +43856,7 @@
     <row r="589" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C589" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[125.500000]</v>
       </c>
     </row>
     <row r="590" spans="3:3" x14ac:dyDescent="0.2">
@@ -43341,7 +43964,7 @@
     <row r="607" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C607" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[126.000000]</v>
       </c>
     </row>
     <row r="608" spans="3:3" x14ac:dyDescent="0.2">
@@ -43449,7 +44072,7 @@
     <row r="625" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C625" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[126.500000]</v>
       </c>
     </row>
     <row r="626" spans="3:3" x14ac:dyDescent="0.2">
@@ -43557,7 +44180,7 @@
     <row r="643" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C643" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[127.000000]</v>
       </c>
     </row>
     <row r="644" spans="3:3" x14ac:dyDescent="0.2">
@@ -43665,7 +44288,7 @@
     <row r="661" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C661" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[127.500000]</v>
       </c>
     </row>
     <row r="662" spans="3:3" x14ac:dyDescent="0.2">
@@ -43773,7 +44396,7 @@
     <row r="679" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C679" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[128.000000]</v>
       </c>
     </row>
     <row r="680" spans="3:3" x14ac:dyDescent="0.2">
@@ -43881,7 +44504,7 @@
     <row r="697" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C697" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[128.500000]</v>
       </c>
     </row>
     <row r="698" spans="3:3" x14ac:dyDescent="0.2">
@@ -43989,7 +44612,7 @@
     <row r="715" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C715" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[129.000000]</v>
       </c>
     </row>
     <row r="716" spans="3:3" x14ac:dyDescent="0.2">
@@ -44097,7 +44720,7 @@
     <row r="733" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C733" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[129.500000]</v>
       </c>
     </row>
     <row r="734" spans="3:3" x14ac:dyDescent="0.2">
@@ -44205,7 +44828,7 @@
     <row r="751" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C751" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[130.000000]</v>
       </c>
     </row>
     <row r="752" spans="3:3" x14ac:dyDescent="0.2">
@@ -44313,7 +44936,7 @@
     <row r="769" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C769" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[130.500000]</v>
       </c>
     </row>
     <row r="770" spans="3:3" x14ac:dyDescent="0.2">
@@ -44421,7 +45044,7 @@
     <row r="787" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C787" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[131.000000]</v>
       </c>
     </row>
     <row r="788" spans="3:3" x14ac:dyDescent="0.2">
@@ -44529,7 +45152,7 @@
     <row r="805" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C805" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[131.500000]</v>
       </c>
     </row>
     <row r="806" spans="3:3" x14ac:dyDescent="0.2">
@@ -44637,7 +45260,7 @@
     <row r="823" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C823" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[132.000000]</v>
       </c>
     </row>
     <row r="824" spans="3:3" x14ac:dyDescent="0.2">
@@ -44745,7 +45368,7 @@
     <row r="841" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C841" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[132.500000]</v>
       </c>
     </row>
     <row r="842" spans="3:3" x14ac:dyDescent="0.2">
@@ -44853,7 +45476,7 @@
     <row r="859" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C859" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[133.000000]</v>
       </c>
     </row>
     <row r="860" spans="3:3" x14ac:dyDescent="0.2">
@@ -44961,7 +45584,7 @@
     <row r="877" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C877" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[133.500000]</v>
       </c>
     </row>
     <row r="878" spans="3:3" x14ac:dyDescent="0.2">
@@ -45069,7 +45692,7 @@
     <row r="895" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C895" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[134.000000]</v>
       </c>
     </row>
     <row r="896" spans="3:3" x14ac:dyDescent="0.2">
@@ -45177,7 +45800,7 @@
     <row r="913" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C913" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[134.500000]</v>
       </c>
     </row>
     <row r="914" spans="3:3" x14ac:dyDescent="0.2">
@@ -45285,7 +45908,7 @@
     <row r="931" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C931" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[135.000000]</v>
       </c>
     </row>
     <row r="932" spans="3:3" x14ac:dyDescent="0.2">
@@ -45393,7 +46016,7 @@
     <row r="949" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C949" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[135.500000]</v>
       </c>
     </row>
     <row r="950" spans="3:3" x14ac:dyDescent="0.2">
@@ -45501,7 +46124,7 @@
     <row r="967" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C967" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[136.000000]</v>
       </c>
     </row>
     <row r="968" spans="3:3" x14ac:dyDescent="0.2">
@@ -45609,7 +46232,7 @@
     <row r="985" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C985" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[136.500000]</v>
       </c>
     </row>
     <row r="986" spans="3:3" x14ac:dyDescent="0.2">
@@ -45717,7 +46340,7 @@
     <row r="1003" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1003" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[137.000000]</v>
       </c>
     </row>
     <row r="1004" spans="3:3" x14ac:dyDescent="0.2">
@@ -45825,7 +46448,7 @@
     <row r="1021" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1021" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[137.500000]</v>
       </c>
     </row>
     <row r="1022" spans="3:3" x14ac:dyDescent="0.2">
@@ -45933,7 +46556,7 @@
     <row r="1039" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1039" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[138.000000]</v>
       </c>
     </row>
     <row r="1040" spans="3:3" x14ac:dyDescent="0.2">
@@ -46041,7 +46664,7 @@
     <row r="1057" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1057" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[138.500000]</v>
       </c>
     </row>
     <row r="1058" spans="3:3" x14ac:dyDescent="0.2">
@@ -46149,7 +46772,7 @@
     <row r="1075" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1075" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[139.000000]</v>
       </c>
     </row>
     <row r="1076" spans="3:3" x14ac:dyDescent="0.2">
@@ -46257,7 +46880,7 @@
     <row r="1093" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1093" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[139.500000]</v>
       </c>
     </row>
     <row r="1094" spans="3:3" x14ac:dyDescent="0.2">
@@ -46365,7 +46988,7 @@
     <row r="1111" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1111" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[140.000000]</v>
       </c>
     </row>
     <row r="1112" spans="3:3" x14ac:dyDescent="0.2">
@@ -46473,7 +47096,7 @@
     <row r="1129" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1129" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[140.500000]</v>
       </c>
     </row>
     <row r="1130" spans="3:3" x14ac:dyDescent="0.2">
@@ -46581,7 +47204,7 @@
     <row r="1147" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1147" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[141.000000]</v>
       </c>
     </row>
     <row r="1148" spans="3:3" x14ac:dyDescent="0.2">
@@ -46689,7 +47312,7 @@
     <row r="1165" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1165" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[141.500000]</v>
       </c>
     </row>
     <row r="1166" spans="3:3" x14ac:dyDescent="0.2">
@@ -46797,7 +47420,7 @@
     <row r="1183" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1183" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[142.000000]</v>
       </c>
     </row>
     <row r="1184" spans="3:3" x14ac:dyDescent="0.2">
@@ -46905,7 +47528,7 @@
     <row r="1201" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1201" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[142.500000]</v>
       </c>
     </row>
     <row r="1202" spans="3:3" x14ac:dyDescent="0.2">
@@ -47013,7 +47636,7 @@
     <row r="1219" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1219" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[143.000000]</v>
       </c>
     </row>
     <row r="1220" spans="3:3" x14ac:dyDescent="0.2">
@@ -47121,7 +47744,7 @@
     <row r="1237" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1237" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[143.500000]</v>
       </c>
     </row>
     <row r="1238" spans="3:3" x14ac:dyDescent="0.2">
@@ -47229,7 +47852,7 @@
     <row r="1255" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1255" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[144.000000]</v>
       </c>
     </row>
     <row r="1256" spans="3:3" x14ac:dyDescent="0.2">
@@ -47337,7 +47960,7 @@
     <row r="1273" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1273" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[144.500000]</v>
       </c>
     </row>
     <row r="1274" spans="3:3" x14ac:dyDescent="0.2">
@@ -47445,7 +48068,7 @@
     <row r="1291" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1291" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[145.000000]</v>
       </c>
     </row>
     <row r="1292" spans="3:3" x14ac:dyDescent="0.2">
@@ -47553,7 +48176,7 @@
     <row r="1309" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1309" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[145.500000]</v>
       </c>
     </row>
     <row r="1310" spans="3:3" x14ac:dyDescent="0.2">
@@ -47661,7 +48284,7 @@
     <row r="1327" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1327" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[146.000000]</v>
       </c>
     </row>
     <row r="1328" spans="3:3" x14ac:dyDescent="0.2">
@@ -47769,7 +48392,7 @@
     <row r="1345" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1345" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[146.500000]</v>
       </c>
     </row>
     <row r="1346" spans="3:3" x14ac:dyDescent="0.2">
@@ -47877,7 +48500,7 @@
     <row r="1363" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1363" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[147.000000]</v>
       </c>
     </row>
     <row r="1364" spans="3:3" x14ac:dyDescent="0.2">
@@ -47985,7 +48608,7 @@
     <row r="1381" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1381" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[147.500000]</v>
       </c>
     </row>
     <row r="1382" spans="3:3" x14ac:dyDescent="0.2">
@@ -48093,7 +48716,7 @@
     <row r="1399" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1399" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[148.000000]</v>
       </c>
     </row>
     <row r="1400" spans="3:3" x14ac:dyDescent="0.2">
@@ -48201,7 +48824,7 @@
     <row r="1417" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1417" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[148.500000]</v>
       </c>
     </row>
     <row r="1418" spans="3:3" x14ac:dyDescent="0.2">
@@ -48309,7 +48932,7 @@
     <row r="1435" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1435" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[149.000000]</v>
       </c>
     </row>
     <row r="1436" spans="3:3" x14ac:dyDescent="0.2">
@@ -48417,7 +49040,7 @@
     <row r="1453" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1453" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[149.500000]</v>
       </c>
     </row>
     <row r="1454" spans="3:3" x14ac:dyDescent="0.2">
@@ -48633,7 +49256,7 @@
     <row r="1489" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1489" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[150.500000]</v>
       </c>
     </row>
     <row r="1490" spans="3:3" x14ac:dyDescent="0.2">
@@ -48741,7 +49364,7 @@
     <row r="1507" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1507" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[151.000000]</v>
       </c>
     </row>
     <row r="1508" spans="3:3" x14ac:dyDescent="0.2">
@@ -48849,7 +49472,7 @@
     <row r="1525" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1525" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[151.500000]</v>
       </c>
     </row>
     <row r="1526" spans="3:3" x14ac:dyDescent="0.2">
@@ -48957,7 +49580,7 @@
     <row r="1543" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1543" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[152.000000]</v>
       </c>
     </row>
     <row r="1544" spans="3:3" x14ac:dyDescent="0.2">
@@ -49065,7 +49688,7 @@
     <row r="1561" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1561" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[152.500000]</v>
       </c>
     </row>
     <row r="1562" spans="3:3" x14ac:dyDescent="0.2">
@@ -49173,7 +49796,7 @@
     <row r="1579" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1579" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[153.000000]</v>
       </c>
     </row>
     <row r="1580" spans="3:3" x14ac:dyDescent="0.2">
@@ -49281,7 +49904,7 @@
     <row r="1597" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1597" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[153.500000]</v>
       </c>
     </row>
     <row r="1598" spans="3:3" x14ac:dyDescent="0.2">
@@ -49389,7 +50012,7 @@
     <row r="1615" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1615" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[154.000000]</v>
       </c>
     </row>
     <row r="1616" spans="3:3" x14ac:dyDescent="0.2">
@@ -49497,7 +50120,7 @@
     <row r="1633" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1633" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[154.500000]</v>
       </c>
     </row>
     <row r="1634" spans="3:3" x14ac:dyDescent="0.2">
@@ -49605,7 +50228,7 @@
     <row r="1651" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1651" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[155.000000]</v>
       </c>
     </row>
     <row r="1652" spans="3:3" x14ac:dyDescent="0.2">
@@ -49713,7 +50336,7 @@
     <row r="1669" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1669" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[155.500000]</v>
       </c>
     </row>
     <row r="1670" spans="3:3" x14ac:dyDescent="0.2">
@@ -49821,7 +50444,7 @@
     <row r="1687" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1687" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[156.000000]</v>
       </c>
     </row>
     <row r="1688" spans="3:3" x14ac:dyDescent="0.2">
@@ -49929,7 +50552,7 @@
     <row r="1705" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1705" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[156.500000]</v>
       </c>
     </row>
     <row r="1706" spans="3:3" x14ac:dyDescent="0.2">
@@ -50037,7 +50660,7 @@
     <row r="1723" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1723" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[157.000000]</v>
       </c>
     </row>
     <row r="1724" spans="3:3" x14ac:dyDescent="0.2">
@@ -50145,7 +50768,7 @@
     <row r="1741" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1741" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[157.500000]</v>
       </c>
     </row>
     <row r="1742" spans="3:3" x14ac:dyDescent="0.2">
@@ -50253,7 +50876,7 @@
     <row r="1759" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1759" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[158.000000]</v>
       </c>
     </row>
     <row r="1760" spans="3:3" x14ac:dyDescent="0.2">
@@ -50361,7 +50984,7 @@
     <row r="1777" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1777" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[158.500000]</v>
       </c>
     </row>
     <row r="1778" spans="3:3" x14ac:dyDescent="0.2">
@@ -50469,7 +51092,7 @@
     <row r="1795" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1795" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[159.000000]</v>
       </c>
     </row>
     <row r="1796" spans="3:3" x14ac:dyDescent="0.2">
@@ -50577,7 +51200,7 @@
     <row r="1813" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1813" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[159.500000]</v>
       </c>
     </row>
     <row r="1814" spans="3:3" x14ac:dyDescent="0.2">
@@ -50685,7 +51308,7 @@
     <row r="1831" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1831" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[160.000000]</v>
       </c>
     </row>
     <row r="1832" spans="3:3" x14ac:dyDescent="0.2">
@@ -50793,7 +51416,7 @@
     <row r="1849" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1849" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[160.500000]</v>
       </c>
     </row>
     <row r="1850" spans="3:3" x14ac:dyDescent="0.2">
@@ -50901,7 +51524,7 @@
     <row r="1867" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1867" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[161.000000]</v>
       </c>
     </row>
     <row r="1868" spans="3:3" x14ac:dyDescent="0.2">
@@ -51009,7 +51632,7 @@
     <row r="1885" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1885" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[161.500000]</v>
       </c>
     </row>
     <row r="1886" spans="3:3" x14ac:dyDescent="0.2">
@@ -51117,7 +51740,7 @@
     <row r="1903" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1903" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[162.000000]</v>
       </c>
     </row>
     <row r="1904" spans="3:3" x14ac:dyDescent="0.2">
@@ -51225,7 +51848,7 @@
     <row r="1921" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1921" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[162.500000]</v>
       </c>
     </row>
     <row r="1922" spans="3:3" x14ac:dyDescent="0.2">
@@ -51333,7 +51956,7 @@
     <row r="1939" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1939" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[163.000000]</v>
       </c>
     </row>
     <row r="1940" spans="3:3" x14ac:dyDescent="0.2">
@@ -51441,7 +52064,7 @@
     <row r="1957" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1957" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[163.500000]</v>
       </c>
     </row>
     <row r="1958" spans="3:3" x14ac:dyDescent="0.2">
@@ -51549,7 +52172,7 @@
     <row r="1975" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1975" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[164.000000]</v>
       </c>
     </row>
     <row r="1976" spans="3:3" x14ac:dyDescent="0.2">
@@ -51657,7 +52280,7 @@
     <row r="1993" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1993" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[164.500000]</v>
       </c>
     </row>
     <row r="1994" spans="3:3" x14ac:dyDescent="0.2">
@@ -51765,7 +52388,7 @@
     <row r="2011" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2011" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[165.000000]</v>
       </c>
     </row>
     <row r="2012" spans="3:3" x14ac:dyDescent="0.2">
@@ -51873,7 +52496,7 @@
     <row r="2029" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2029" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[165.500000]</v>
       </c>
     </row>
     <row r="2030" spans="3:3" x14ac:dyDescent="0.2">
@@ -51981,7 +52604,7 @@
     <row r="2047" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2047" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[166.000000]</v>
       </c>
     </row>
     <row r="2048" spans="3:3" x14ac:dyDescent="0.2">
@@ -52089,7 +52712,7 @@
     <row r="2065" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2065" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[166.500000]</v>
       </c>
     </row>
     <row r="2066" spans="3:3" x14ac:dyDescent="0.2">
@@ -52197,7 +52820,7 @@
     <row r="2083" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2083" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[167.000000]</v>
       </c>
     </row>
     <row r="2084" spans="3:3" x14ac:dyDescent="0.2">
@@ -52305,7 +52928,7 @@
     <row r="2101" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2101" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[167.500000]</v>
       </c>
     </row>
     <row r="2102" spans="3:3" x14ac:dyDescent="0.2">
@@ -52413,7 +53036,7 @@
     <row r="2119" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2119" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[168.000000]</v>
       </c>
     </row>
     <row r="2120" spans="3:3" x14ac:dyDescent="0.2">
@@ -52521,7 +53144,7 @@
     <row r="2137" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2137" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[168.500000]</v>
       </c>
     </row>
     <row r="2138" spans="3:3" x14ac:dyDescent="0.2">
@@ -52629,7 +53252,7 @@
     <row r="2155" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2155" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[169.000000]</v>
       </c>
     </row>
     <row r="2156" spans="3:3" x14ac:dyDescent="0.2">
@@ -52737,7 +53360,7 @@
     <row r="2173" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2173" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[169.500000]</v>
       </c>
     </row>
     <row r="2174" spans="3:3" x14ac:dyDescent="0.2">
@@ -52845,7 +53468,7 @@
     <row r="2191" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2191" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[170.000000]</v>
       </c>
     </row>
     <row r="2192" spans="3:3" x14ac:dyDescent="0.2">
@@ -52953,7 +53576,7 @@
     <row r="2209" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2209" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[170.500000]</v>
       </c>
     </row>
     <row r="2210" spans="3:3" x14ac:dyDescent="0.2">
@@ -53061,7 +53684,7 @@
     <row r="2227" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2227" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[171.000000]</v>
       </c>
     </row>
     <row r="2228" spans="3:3" x14ac:dyDescent="0.2">
@@ -53169,7 +53792,7 @@
     <row r="2245" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2245" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[171.500000]</v>
       </c>
     </row>
     <row r="2246" spans="3:3" x14ac:dyDescent="0.2">
@@ -53277,7 +53900,7 @@
     <row r="2263" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2263" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[172.000000]</v>
       </c>
     </row>
     <row r="2264" spans="3:3" x14ac:dyDescent="0.2">
@@ -53385,7 +54008,7 @@
     <row r="2281" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2281" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[172.500000]</v>
       </c>
     </row>
     <row r="2282" spans="3:3" x14ac:dyDescent="0.2">
@@ -53493,7 +54116,7 @@
     <row r="2299" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2299" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[173.000000]</v>
       </c>
     </row>
     <row r="2300" spans="3:3" x14ac:dyDescent="0.2">
@@ -53601,7 +54224,7 @@
     <row r="2317" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2317" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[173.500000]</v>
       </c>
     </row>
     <row r="2318" spans="3:3" x14ac:dyDescent="0.2">
@@ -53709,7 +54332,7 @@
     <row r="2335" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2335" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[174.000000]</v>
       </c>
     </row>
     <row r="2336" spans="3:3" x14ac:dyDescent="0.2">
@@ -53817,7 +54440,7 @@
     <row r="2353" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2353" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[174.500000]</v>
       </c>
     </row>
     <row r="2354" spans="3:3" x14ac:dyDescent="0.2">
@@ -53925,7 +54548,7 @@
     <row r="2371" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2371" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[175.000000]</v>
       </c>
     </row>
     <row r="2372" spans="3:3" x14ac:dyDescent="0.2">
@@ -54033,7 +54656,7 @@
     <row r="2389" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2389" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[175.500000]</v>
       </c>
     </row>
     <row r="2390" spans="3:3" x14ac:dyDescent="0.2">
@@ -54141,7 +54764,7 @@
     <row r="2407" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2407" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[176.000000]</v>
       </c>
     </row>
     <row r="2408" spans="3:3" x14ac:dyDescent="0.2">
@@ -54249,7 +54872,7 @@
     <row r="2425" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2425" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[176.500000]</v>
       </c>
     </row>
     <row r="2426" spans="3:3" x14ac:dyDescent="0.2">
@@ -54357,7 +54980,7 @@
     <row r="2443" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2443" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[177.000000]</v>
       </c>
     </row>
     <row r="2444" spans="3:3" x14ac:dyDescent="0.2">
@@ -54465,7 +55088,7 @@
     <row r="2461" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2461" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[177.500000]</v>
       </c>
     </row>
     <row r="2462" spans="3:3" x14ac:dyDescent="0.2">
@@ -54573,7 +55196,7 @@
     <row r="2479" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2479" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[178.000000]</v>
       </c>
     </row>
     <row r="2480" spans="3:3" x14ac:dyDescent="0.2">
@@ -54681,7 +55304,7 @@
     <row r="2497" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2497" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[178.500000]</v>
       </c>
     </row>
     <row r="2498" spans="3:3" x14ac:dyDescent="0.2">
@@ -54789,7 +55412,7 @@
     <row r="2515" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2515" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[179.000000]</v>
       </c>
     </row>
     <row r="2516" spans="3:3" x14ac:dyDescent="0.2">
@@ -54897,7 +55520,7 @@
     <row r="2533" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2533" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[179.500000]</v>
       </c>
     </row>
     <row r="2534" spans="3:3" x14ac:dyDescent="0.2">
@@ -55005,7 +55628,7 @@
     <row r="2551" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2551" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[180.000000]</v>
       </c>
     </row>
     <row r="2552" spans="3:3" x14ac:dyDescent="0.2">
@@ -55113,7 +55736,7 @@
     <row r="2569" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2569" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[180.500000]</v>
       </c>
     </row>
     <row r="2570" spans="3:3" x14ac:dyDescent="0.2">
@@ -55221,7 +55844,7 @@
     <row r="2587" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2587" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[181.000000]</v>
       </c>
     </row>
     <row r="2588" spans="3:3" x14ac:dyDescent="0.2">
@@ -55329,7 +55952,7 @@
     <row r="2605" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2605" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[181.500000]</v>
       </c>
     </row>
     <row r="2606" spans="3:3" x14ac:dyDescent="0.2">
@@ -55437,7 +56060,7 @@
     <row r="2623" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2623" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[182.000000]</v>
       </c>
     </row>
     <row r="2624" spans="3:3" x14ac:dyDescent="0.2">
@@ -55545,7 +56168,7 @@
     <row r="2641" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2641" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[182.500000]</v>
       </c>
     </row>
     <row r="2642" spans="3:3" x14ac:dyDescent="0.2">
@@ -55653,7 +56276,7 @@
     <row r="2659" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2659" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[183.000000]</v>
       </c>
     </row>
     <row r="2660" spans="3:3" x14ac:dyDescent="0.2">
@@ -55761,7 +56384,7 @@
     <row r="2677" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2677" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[183.500000]</v>
       </c>
     </row>
     <row r="2678" spans="3:3" x14ac:dyDescent="0.2">
@@ -55869,7 +56492,7 @@
     <row r="2695" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2695" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[184.000000]</v>
       </c>
     </row>
     <row r="2696" spans="3:3" x14ac:dyDescent="0.2">
@@ -55977,7 +56600,7 @@
     <row r="2713" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2713" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[184.500000]</v>
       </c>
     </row>
     <row r="2714" spans="3:3" x14ac:dyDescent="0.2">
@@ -56085,7 +56708,7 @@
     <row r="2731" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2731" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[185.000000]</v>
       </c>
     </row>
     <row r="2732" spans="3:3" x14ac:dyDescent="0.2">
@@ -56193,7 +56816,7 @@
     <row r="2749" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2749" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[185.500000]</v>
       </c>
     </row>
     <row r="2750" spans="3:3" x14ac:dyDescent="0.2">
@@ -56301,7 +56924,7 @@
     <row r="2767" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2767" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[186.000000]</v>
       </c>
     </row>
     <row r="2768" spans="3:3" x14ac:dyDescent="0.2">
@@ -56409,7 +57032,7 @@
     <row r="2785" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2785" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[186.500000]</v>
       </c>
     </row>
     <row r="2786" spans="3:3" x14ac:dyDescent="0.2">
@@ -56517,7 +57140,7 @@
     <row r="2803" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2803" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[187.000000]</v>
       </c>
     </row>
     <row r="2804" spans="3:3" x14ac:dyDescent="0.2">
@@ -56625,7 +57248,7 @@
     <row r="2821" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2821" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[187.500000]</v>
       </c>
     </row>
     <row r="2822" spans="3:3" x14ac:dyDescent="0.2">
@@ -56733,7 +57356,7 @@
     <row r="2839" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2839" s="6" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">   CONST[150.000000]</v>
+        <v xml:space="preserve">   CONST[188.000000]</v>
       </c>
     </row>
     <row r="2840" spans="3:3" x14ac:dyDescent="0.2">

--- a/excel/dal 101.xlsx
+++ b/excel/dal 101.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\github\dal\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451AB528-3EEC-439F-BA86-8569D0C648D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCDE99D-1AA7-49CA-930A-BD0FA5601506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{A658F64F-54DB-47F5-8888-F8582537DD58}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,6 +213,14 @@
   </si>
   <si>
     <t>Model Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repository size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repository model</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -38702,10 +38710,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F20376B-A517-4185-B924-84028E73DAC7}">
-  <dimension ref="A1:D2871"/>
+  <dimension ref="A1:H2871"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -38714,10 +38722,13 @@
     <col min="2" max="2" width="77.625" style="6" customWidth="1"/>
     <col min="3" max="3" width="58.75" style="6" customWidth="1"/>
     <col min="4" max="4" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="6"/>
+    <col min="5" max="5" width="9" style="6"/>
+    <col min="6" max="6" width="21" style="6" customWidth="1"/>
+    <col min="7" max="7" width="42.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
@@ -38725,7 +38736,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>44829</v>
       </c>
@@ -38736,7 +38747,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="8" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_xll.EVALUATIONDATE.SET(A2)</f>
         <v>44829</v>
@@ -38748,7 +38759,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="7"/>
       <c r="C4" s="6" t="s">
         <v>29</v>
@@ -38757,7 +38768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C5" s="6" t="s">
         <v>30</v>
       </c>
@@ -38765,23 +38776,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="6" cm="1">
+        <f t="array" aca="1" ref="G6" ca="1">_xll.REPOSITORY.SIZE()</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="A7" ca="1">_xll.PRODUCT.NEW("my_product",A17:A175,B17:B175)</f>
-        <v>~ScriptProduct~my_product~000002BAF8F0E9D0</v>
+        <v>~ScriptProduct~my_product~000002437BF38DF0</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">_xll.BSMODELDATA.NEW("model",D2,D3,D4,D5)</f>
-        <v>~BSModelData_~model~000002BA9A1C5C70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>~BSModelData_~model~000002431F97BE10</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="6" t="str" cm="1">
+        <f t="array" aca="1" ref="G7" ca="1">_xll.REPOSITORY.FIND("BSModelData")</f>
+        <v>~BSModelData_~model~000002431F97BE10</v>
+      </c>
+      <c r="H7" s="6" t="str" cm="1">
+        <f t="array" aca="1" ref="H7" ca="1">_xll.REPOSITORY.FIND("ScriptProduct")</f>
+        <v>~ScriptProduct~my_product~000002437BF38DF0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="str">
         <f t="array" aca="1" ref="A10:B14" ca="1">_xll.MONTECARLO.VALUE(A7,C7,2^20,"sobol",TRUE,TRUE,0.5)</f>
         <v>d_div</v>
@@ -38792,7 +38823,7 @@
       </c>
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="str">
         <f ca="1"/>
         <v>d_rate</v>
@@ -38802,7 +38833,7 @@
         <v>13.64397785215289</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="str">
         <f ca="1"/>
         <v>d_spot</v>
@@ -38812,7 +38843,7 @@
         <v>4.4502779077836147E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="str">
         <f ca="1"/>
         <v>d_vol</v>
@@ -38822,7 +38853,7 @@
         <v>-4.186599006938005</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="str">
         <f ca="1"/>
         <v>value</v>
@@ -38832,7 +38863,7 @@
         <v>1.195609488594287</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
